--- a/server/data.xlsx
+++ b/server/data.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1abbbb1933264474/Documents/Fall 2025/CS 529/Project/SAR-Visualization/server/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_3F7249B2A3BACFFC4989A3F1004EC14632A14906" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{025B88EE-9F69-4FEF-9C26-51BFA41C39A9}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Compounds" sheetId="1" r:id="rId4"/>
+    <sheet name="Compounds" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="b18rxBeb210/ZGWORvPInhdP9f1oedOxUTYHx6KGHKM="/>
@@ -1002,51 +1011,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
@@ -1056,53 +1067,64 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1113,11 +1135,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image39.png"/>
+        <xdr:cNvPr id="2" name="image39.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1141,11 +1169,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="3" name="image6.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1169,11 +1203,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image23.png"/>
+        <xdr:cNvPr id="4" name="image23.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1197,11 +1237,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="5" name="image7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1225,11 +1271,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png"/>
+        <xdr:cNvPr id="6" name="image12.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1253,11 +1305,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.png"/>
+        <xdr:cNvPr id="7" name="image18.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1281,11 +1339,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png"/>
+        <xdr:cNvPr id="8" name="image13.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1309,11 +1373,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="9" name="image4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1337,11 +1407,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png"/>
+        <xdr:cNvPr id="10" name="image9.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1365,11 +1441,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image24.png"/>
+        <xdr:cNvPr id="11" name="image24.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1393,11 +1475,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.png"/>
+        <xdr:cNvPr id="12" name="image16.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1421,11 +1509,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="13" name="image5.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1449,11 +1543,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png"/>
+        <xdr:cNvPr id="14" name="image15.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1477,11 +1577,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="15" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1505,11 +1611,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image26.png"/>
+        <xdr:cNvPr id="16" name="image26.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1533,11 +1645,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.png"/>
+        <xdr:cNvPr id="17" name="image21.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1561,11 +1679,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="18" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1589,11 +1713,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png"/>
+        <xdr:cNvPr id="19" name="image11.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1617,11 +1747,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png"/>
+        <xdr:cNvPr id="20" name="image14.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1645,11 +1781,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.png"/>
+        <xdr:cNvPr id="21" name="image22.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1673,11 +1815,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPr id="22" name="image8.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1701,11 +1849,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image28.png"/>
+        <xdr:cNvPr id="23" name="image28.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1729,11 +1883,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="24" name="image3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1757,11 +1917,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png"/>
+        <xdr:cNvPr id="25" name="image17.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1785,11 +1951,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.png"/>
+        <xdr:cNvPr id="26" name="image19.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1813,11 +1985,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png"/>
+        <xdr:cNvPr id="27" name="image10.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1841,11 +2019,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.png"/>
+        <xdr:cNvPr id="28" name="image20.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1869,11 +2053,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image41.png"/>
+        <xdr:cNvPr id="29" name="image41.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1897,11 +2087,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image31.png"/>
+        <xdr:cNvPr id="30" name="image31.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1925,11 +2121,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image27.png"/>
+        <xdr:cNvPr id="31" name="image27.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1953,11 +2155,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image38.png"/>
+        <xdr:cNvPr id="32" name="image38.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1981,11 +2189,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image29.png"/>
+        <xdr:cNvPr id="33" name="image29.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2009,11 +2223,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image30.png"/>
+        <xdr:cNvPr id="34" name="image30.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2037,11 +2257,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image25.png"/>
+        <xdr:cNvPr id="35" name="image25.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2065,11 +2291,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image37.png"/>
+        <xdr:cNvPr id="36" name="image37.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2093,11 +2325,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image36.png"/>
+        <xdr:cNvPr id="37" name="image36.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2121,11 +2359,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image34.png"/>
+        <xdr:cNvPr id="38" name="image34.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2149,11 +2393,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image45.png"/>
+        <xdr:cNvPr id="39" name="image45.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2177,11 +2427,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image32.png"/>
+        <xdr:cNvPr id="40" name="image32.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2205,11 +2461,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image33.png"/>
+        <xdr:cNvPr id="41" name="image33.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2233,11 +2495,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image44.png"/>
+        <xdr:cNvPr id="42" name="image44.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2261,11 +2529,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image40.png"/>
+        <xdr:cNvPr id="43" name="image40.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2289,11 +2563,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image35.png"/>
+        <xdr:cNvPr id="44" name="image35.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId43"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2317,11 +2597,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image42.png"/>
+        <xdr:cNvPr id="45" name="image42.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2345,11 +2631,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image48.png"/>
+        <xdr:cNvPr id="46" name="image48.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId45"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2373,11 +2665,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image43.png"/>
+        <xdr:cNvPr id="47" name="image43.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2401,11 +2699,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image50.png"/>
+        <xdr:cNvPr id="48" name="image50.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId47"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2429,11 +2733,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image53.png"/>
+        <xdr:cNvPr id="49" name="image53.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId48"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2457,11 +2767,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image46.png"/>
+        <xdr:cNvPr id="50" name="image46.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId49"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2485,11 +2801,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image67.png"/>
+        <xdr:cNvPr id="51" name="image67.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId50"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2513,11 +2835,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image69.png"/>
+        <xdr:cNvPr id="52" name="image69.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId51"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2541,11 +2869,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image51.png"/>
+        <xdr:cNvPr id="53" name="image51.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId52"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2569,11 +2903,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image56.png"/>
+        <xdr:cNvPr id="54" name="image56.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId53"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2597,11 +2937,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image57.png"/>
+        <xdr:cNvPr id="55" name="image57.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId54"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2625,11 +2971,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image61.png"/>
+        <xdr:cNvPr id="56" name="image61.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId55"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2653,11 +3005,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image52.png"/>
+        <xdr:cNvPr id="57" name="image52.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId56"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2681,11 +3039,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image59.png"/>
+        <xdr:cNvPr id="58" name="image59.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId57"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2709,11 +3073,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image49.png"/>
+        <xdr:cNvPr id="59" name="image49.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId58"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2737,11 +3107,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image47.png"/>
+        <xdr:cNvPr id="60" name="image47.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId59"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2765,11 +3141,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image60.png"/>
+        <xdr:cNvPr id="61" name="image60.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId60"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2793,11 +3175,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image63.png"/>
+        <xdr:cNvPr id="62" name="image63.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId61"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2821,11 +3209,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image71.png"/>
+        <xdr:cNvPr id="63" name="image71.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId62"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2849,11 +3243,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image54.png"/>
+        <xdr:cNvPr id="64" name="image54.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId63"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2877,11 +3277,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image74.png"/>
+        <xdr:cNvPr id="65" name="image74.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId64"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2905,11 +3311,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image62.png"/>
+        <xdr:cNvPr id="66" name="image62.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId65"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2933,11 +3345,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image64.png"/>
+        <xdr:cNvPr id="67" name="image64.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId66"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2961,11 +3379,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image58.png"/>
+        <xdr:cNvPr id="68" name="image58.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId67"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2989,11 +3413,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image78.png"/>
+        <xdr:cNvPr id="69" name="image78.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId68"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3017,11 +3447,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image70.png"/>
+        <xdr:cNvPr id="70" name="image70.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId69"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3045,11 +3481,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image76.png"/>
+        <xdr:cNvPr id="71" name="image76.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId70"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3073,11 +3515,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image65.png"/>
+        <xdr:cNvPr id="72" name="image65.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId71"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3101,11 +3549,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image68.png"/>
+        <xdr:cNvPr id="73" name="image68.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId72"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3129,11 +3583,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image55.png"/>
+        <xdr:cNvPr id="74" name="image55.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId73"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3157,11 +3617,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image92.png"/>
+        <xdr:cNvPr id="75" name="image92.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId74"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3185,11 +3651,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image66.png"/>
+        <xdr:cNvPr id="76" name="image66.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId75"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3213,11 +3685,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image77.png"/>
+        <xdr:cNvPr id="77" name="image77.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId76"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3241,11 +3719,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image72.png"/>
+        <xdr:cNvPr id="78" name="image72.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId77"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3269,11 +3753,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image73.png"/>
+        <xdr:cNvPr id="79" name="image73.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId78"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3297,11 +3787,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image85.png"/>
+        <xdr:cNvPr id="80" name="image85.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId79"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3325,11 +3821,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image83.png"/>
+        <xdr:cNvPr id="81" name="image83.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId80"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3353,11 +3855,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image75.png"/>
+        <xdr:cNvPr id="82" name="image75.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId81"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3381,11 +3889,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image79.png"/>
+        <xdr:cNvPr id="83" name="image79.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId82"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3409,11 +3923,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image88.png"/>
+        <xdr:cNvPr id="84" name="image88.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId83"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3437,11 +3957,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image86.png"/>
+        <xdr:cNvPr id="85" name="image86.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId84"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3465,11 +3991,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image96.png"/>
+        <xdr:cNvPr id="86" name="image96.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId85"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3493,11 +4025,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image81.png"/>
+        <xdr:cNvPr id="87" name="image81.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId86"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3521,11 +4059,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image90.png"/>
+        <xdr:cNvPr id="88" name="image90.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId87"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3549,11 +4093,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image80.png"/>
+        <xdr:cNvPr id="89" name="image80.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId88"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3577,11 +4127,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image89.png"/>
+        <xdr:cNvPr id="90" name="image89.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId89"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3605,11 +4161,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image98.png"/>
+        <xdr:cNvPr id="91" name="image98.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId90"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3633,11 +4195,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image82.png"/>
+        <xdr:cNvPr id="92" name="image82.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId91"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3661,11 +4229,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image91.png"/>
+        <xdr:cNvPr id="93" name="image91.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId92"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3689,11 +4263,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image84.png"/>
+        <xdr:cNvPr id="94" name="image84.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId93"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3717,11 +4297,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image103.png"/>
+        <xdr:cNvPr id="95" name="image103.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId94"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3745,11 +4331,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image87.png"/>
+        <xdr:cNvPr id="96" name="image87.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId95"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3773,11 +4365,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image99.png"/>
+        <xdr:cNvPr id="97" name="image99.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId96"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3801,11 +4399,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image93.png"/>
+        <xdr:cNvPr id="98" name="image93.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId97"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3829,11 +4433,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image97.png"/>
+        <xdr:cNvPr id="99" name="image97.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId98"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3857,11 +4467,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image94.png"/>
+        <xdr:cNvPr id="100" name="image94.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId99"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3885,11 +4501,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image95.png"/>
+        <xdr:cNvPr id="101" name="image95.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId100"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3913,11 +4535,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image105.png"/>
+        <xdr:cNvPr id="102" name="image105.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId101"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3941,11 +4569,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image101.png"/>
+        <xdr:cNvPr id="103" name="image101.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId102"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3969,11 +4603,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image104.png"/>
+        <xdr:cNvPr id="104" name="image104.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId103"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3997,11 +4637,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image102.png"/>
+        <xdr:cNvPr id="105" name="image102.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId104"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4025,11 +4671,17 @@
     <xdr:ext cx="2790825" cy="2028825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image100.png"/>
+        <xdr:cNvPr id="106" name="image100.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId105"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4047,7 +4699,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -4237,27 +4889,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.0"/>
-    <col customWidth="1" min="2" max="2" width="40.0"/>
-    <col customWidth="1" min="3" max="9" width="8.75"/>
-    <col customWidth="1" min="10" max="10" width="72.75"/>
-    <col customWidth="1" min="11" max="26" width="8.75"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="10" width="72.77734375" customWidth="1"/>
+    <col min="11" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4290,22 +4944,22 @@
       </c>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" ht="159.75" customHeight="1">
+    <row r="2" spans="1:12" ht="159.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
-        <v>447.753</v>
+        <v>447.75299999999999</v>
       </c>
       <c r="D2" s="4">
         <v>5.2</v>
       </c>
       <c r="E2" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F2" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G2" s="4">
         <v>69.8</v>
@@ -4320,7 +4974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="159.75" customHeight="1">
+    <row r="3" spans="1:12" ht="159.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -4338,7 +4992,7 @@
         <v>9.4</v>
       </c>
       <c r="G3" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>14</v>
@@ -4350,13 +5004,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="159.75" customHeight="1">
+    <row r="4" spans="1:12" ht="159.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
-        <v>442.441</v>
+        <v>442.44099999999997</v>
       </c>
       <c r="D4" s="4">
         <v>3.9</v>
@@ -4368,7 +5022,7 @@
         <v>9.4</v>
       </c>
       <c r="G4" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>17</v>
@@ -4380,22 +5034,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="159.75" customHeight="1">
+    <row r="5" spans="1:12" ht="159.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
-        <v>416.378</v>
+        <v>416.37799999999999</v>
       </c>
       <c r="D5" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E5" s="4">
         <v>2.4</v>
       </c>
       <c r="F5" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G5" s="4">
         <v>83.8</v>
@@ -4410,7 +5064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="159.75" customHeight="1">
+    <row r="6" spans="1:12" ht="159.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -4425,7 +5079,7 @@
         <v>3.8</v>
       </c>
       <c r="F6" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G6" s="4">
         <v>83.8</v>
@@ -4440,13 +5094,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="159.75" customHeight="1">
+    <row r="7" spans="1:12" ht="159.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4">
-        <v>457.361</v>
+        <v>457.36099999999999</v>
       </c>
       <c r="D7" s="4">
         <v>4.8</v>
@@ -4458,7 +5112,7 @@
         <v>9.4</v>
       </c>
       <c r="G7" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>26</v>
@@ -4470,13 +5124,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="159.75" customHeight="1">
+    <row r="8" spans="1:12" ht="159.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4">
-        <v>426.442</v>
+        <v>426.44200000000001</v>
       </c>
       <c r="D8" s="4">
         <v>4.5</v>
@@ -4485,10 +5139,10 @@
         <v>3.4</v>
       </c>
       <c r="F8" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G8" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>29</v>
@@ -4500,22 +5154,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="159.75" customHeight="1">
+    <row r="9" spans="1:12" ht="159.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4">
-        <v>398.388</v>
+        <v>398.38799999999998</v>
       </c>
       <c r="D9" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E9" s="4">
         <v>2.5</v>
       </c>
       <c r="F9" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G9" s="4">
         <v>83.8</v>
@@ -4530,22 +5184,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" ht="159.75" customHeight="1">
+    <row r="10" spans="1:12" ht="159.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4">
-        <v>427.335</v>
+        <v>427.33499999999998</v>
       </c>
       <c r="D10" s="4">
         <v>4.8</v>
       </c>
       <c r="E10" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G10" s="4">
         <v>69.8</v>
@@ -4560,25 +5214,25 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" ht="159.75" customHeight="1">
+    <row r="11" spans="1:12" ht="159.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
-        <v>491.806</v>
+        <v>491.80599999999998</v>
       </c>
       <c r="D11" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G11" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>38</v>
@@ -4590,7 +5244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" ht="159.75" customHeight="1">
+    <row r="12" spans="1:12" ht="159.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -4599,13 +5253,13 @@
         <v>502.21</v>
       </c>
       <c r="D12" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E12" s="4">
         <v>3.8</v>
       </c>
       <c r="F12" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G12" s="4">
         <v>69.8</v>
@@ -4620,22 +5274,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" ht="159.75" customHeight="1">
+    <row r="13" spans="1:12" ht="159.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
-        <v>396.853</v>
+        <v>396.85300000000001</v>
       </c>
       <c r="D13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E13" s="4">
         <v>2.6</v>
       </c>
       <c r="F13" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G13" s="4">
         <v>69.8</v>
@@ -4650,13 +5304,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" ht="159.75" customHeight="1">
+    <row r="14" spans="1:12" ht="159.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
-        <v>457.759</v>
+        <v>457.75900000000001</v>
       </c>
       <c r="D14" s="4">
         <v>4.7</v>
@@ -4665,7 +5319,7 @@
         <v>3.3</v>
       </c>
       <c r="F14" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G14" s="4">
         <v>69.8</v>
@@ -4680,22 +5334,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" ht="159.75" customHeight="1">
+    <row r="15" spans="1:12" ht="159.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
-        <v>427.335</v>
+        <v>427.33499999999998</v>
       </c>
       <c r="D15" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E15" s="4">
         <v>3.5</v>
       </c>
       <c r="F15" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G15" s="4">
         <v>69.8</v>
@@ -4710,7 +5364,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" ht="159.75" customHeight="1">
+    <row r="16" spans="1:12" ht="159.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
@@ -4725,10 +5379,10 @@
         <v>4.7</v>
       </c>
       <c r="F16" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G16" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>53</v>
@@ -4740,13 +5394,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" ht="159.75" customHeight="1">
+    <row r="17" spans="1:10" ht="159.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
-        <v>413.308</v>
+        <v>413.30799999999999</v>
       </c>
       <c r="D17" s="4">
         <v>4.7</v>
@@ -4755,7 +5409,7 @@
         <v>3.2</v>
       </c>
       <c r="F17" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G17" s="4">
         <v>69.8</v>
@@ -4770,7 +5424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" ht="159.75" customHeight="1">
+    <row r="18" spans="1:10" ht="159.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
@@ -4782,10 +5436,10 @@
         <v>5.4</v>
       </c>
       <c r="E18" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G18" s="4">
         <v>69.8</v>
@@ -4800,22 +5454,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" ht="159.75" customHeight="1">
+    <row r="19" spans="1:10" ht="159.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
-        <v>457.759</v>
+        <v>457.75900000000001</v>
       </c>
       <c r="D19" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E19" s="4">
         <v>3.6</v>
       </c>
       <c r="F19" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G19" s="4">
         <v>69.8</v>
@@ -4830,25 +5484,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" ht="159.75" customHeight="1">
+    <row r="20" spans="1:10" ht="159.75" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
-        <v>457.361</v>
+        <v>457.36099999999999</v>
       </c>
       <c r="D20" s="4">
         <v>4.5</v>
       </c>
       <c r="E20" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F20" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G20" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>65</v>
@@ -4860,13 +5514,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" ht="159.75" customHeight="1">
+    <row r="21" spans="1:10" ht="159.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
-        <v>394.425</v>
+        <v>394.42500000000001</v>
       </c>
       <c r="D21" s="4">
         <v>3.6</v>
@@ -4875,10 +5529,10 @@
         <v>2.8</v>
       </c>
       <c r="F21" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G21" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>68</v>
@@ -4890,7 +5544,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" ht="159.75" customHeight="1">
+    <row r="22" spans="1:10" ht="159.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>70</v>
       </c>
@@ -4902,13 +5556,13 @@
         <v>6.2</v>
       </c>
       <c r="E22" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F22" s="4">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G22" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>71</v>
@@ -4920,13 +5574,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" ht="159.75" customHeight="1">
+    <row r="23" spans="1:10" ht="159.75" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
-        <v>437.341</v>
+        <v>437.34100000000001</v>
       </c>
       <c r="D23" s="4">
         <v>4.3</v>
@@ -4935,10 +5589,10 @@
         <v>3.5</v>
       </c>
       <c r="F23" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G23" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>74</v>
@@ -4950,13 +5604,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" ht="159.75" customHeight="1">
+    <row r="24" spans="1:10" ht="159.75" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
-        <v>427.335</v>
+        <v>427.33499999999998</v>
       </c>
       <c r="D24" s="4">
         <v>4.7</v>
@@ -4965,10 +5619,10 @@
         <v>3.7</v>
       </c>
       <c r="F24" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G24" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>77</v>
@@ -4980,13 +5634,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" ht="159.75" customHeight="1">
+    <row r="25" spans="1:10" ht="159.75" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
-        <v>412.415</v>
+        <v>412.41500000000002</v>
       </c>
       <c r="D25" s="4">
         <v>4.3</v>
@@ -4995,7 +5649,7 @@
         <v>2.7</v>
       </c>
       <c r="F25" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G25" s="4">
         <v>69.8</v>
@@ -5010,22 +5664,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" ht="159.75" customHeight="1">
+    <row r="26" spans="1:10" ht="159.75" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
-        <v>432.833</v>
+        <v>432.83300000000003</v>
       </c>
       <c r="D26" s="4">
         <v>4.8</v>
       </c>
       <c r="E26" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G26" s="4">
         <v>83.8</v>
@@ -5040,13 +5694,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" ht="159.75" customHeight="1">
+    <row r="27" spans="1:10" ht="159.75" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
-        <v>457.759</v>
+        <v>457.75900000000001</v>
       </c>
       <c r="D27" s="4">
         <v>4.7</v>
@@ -5055,7 +5709,7 @@
         <v>3.3</v>
       </c>
       <c r="F27" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G27" s="4">
         <v>69.8</v>
@@ -5070,22 +5724,22 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" ht="159.75" customHeight="1">
+    <row r="28" spans="1:10" ht="159.75" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
-        <v>382.826</v>
+        <v>382.82600000000002</v>
       </c>
       <c r="D28" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E28" s="4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F28" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G28" s="4">
         <v>83.8</v>
@@ -5100,7 +5754,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" ht="159.75" customHeight="1">
+    <row r="29" spans="1:10" ht="159.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>91</v>
       </c>
@@ -5112,13 +5766,13 @@
         <v>4.3</v>
       </c>
       <c r="E29" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="4">
         <v>9.4</v>
       </c>
       <c r="G29" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>92</v>
@@ -5130,13 +5784,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" ht="159.75" customHeight="1">
+    <row r="30" spans="1:10" ht="159.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
-        <v>468.388</v>
+        <v>468.38799999999998</v>
       </c>
       <c r="D30" s="4">
         <v>4.5</v>
@@ -5148,7 +5802,7 @@
         <v>8.4</v>
       </c>
       <c r="G30" s="4">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>95</v>
@@ -5160,22 +5814,22 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" ht="159.75" customHeight="1">
+    <row r="31" spans="1:10" ht="159.75" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
-        <v>423.314</v>
+        <v>423.31400000000002</v>
       </c>
       <c r="D31" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E31" s="4">
         <v>2.8</v>
       </c>
       <c r="F31" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G31" s="4">
         <v>69.8</v>
@@ -5190,13 +5844,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" ht="159.75" customHeight="1">
+    <row r="32" spans="1:10" ht="159.75" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
-        <v>413.308</v>
+        <v>413.30799999999999</v>
       </c>
       <c r="D32" s="4">
         <v>5.3</v>
@@ -5205,7 +5859,7 @@
         <v>3.2</v>
       </c>
       <c r="F32" s="4">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G32" s="4">
         <v>83.8</v>
@@ -5220,7 +5874,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" ht="159.75" customHeight="1">
+    <row r="33" spans="1:10" ht="159.75" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>103</v>
       </c>
@@ -5235,7 +5889,7 @@
         <v>2.5</v>
       </c>
       <c r="F33" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G33" s="4">
         <v>69.8</v>
@@ -5250,13 +5904,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" ht="159.75" customHeight="1">
+    <row r="34" spans="1:10" ht="159.75" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
-        <v>441.362</v>
+        <v>441.36200000000002</v>
       </c>
       <c r="D34" s="4">
         <v>5.4</v>
@@ -5265,7 +5919,7 @@
         <v>3.5</v>
       </c>
       <c r="F34" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G34" s="4">
         <v>69.8</v>
@@ -5280,22 +5934,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" ht="159.75" customHeight="1">
+    <row r="35" spans="1:10" ht="159.75" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
-        <v>427.277</v>
+        <v>427.27699999999999</v>
       </c>
       <c r="D35" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E35" s="4">
         <v>2.4</v>
       </c>
       <c r="F35" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G35" s="4">
         <v>83.8</v>
@@ -5310,13 +5964,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" ht="159.75" customHeight="1">
+    <row r="36" spans="1:10" ht="159.75" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
-        <v>413.308</v>
+        <v>413.30799999999999</v>
       </c>
       <c r="D36" s="4">
         <v>4.5</v>
@@ -5325,7 +5979,7 @@
         <v>3.1</v>
       </c>
       <c r="F36" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G36" s="4">
         <v>69.8</v>
@@ -5340,22 +5994,22 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" ht="159.75" customHeight="1">
+    <row r="37" spans="1:10" ht="159.75" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
-        <v>399.281</v>
+        <v>399.28100000000001</v>
       </c>
       <c r="D37" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E37" s="4">
         <v>2.8</v>
       </c>
       <c r="F37" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G37" s="4">
         <v>83.8</v>
@@ -5370,22 +6024,22 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" ht="159.75" customHeight="1">
+    <row r="38" spans="1:10" ht="159.75" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
-        <v>399.281</v>
+        <v>399.28100000000001</v>
       </c>
       <c r="D38" s="4">
         <v>4.8</v>
       </c>
       <c r="E38" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G38" s="4">
         <v>83.8</v>
@@ -5400,25 +6054,25 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" ht="159.75" customHeight="1">
+    <row r="39" spans="1:10" ht="159.75" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
-        <v>455.389</v>
+        <v>455.38900000000001</v>
       </c>
       <c r="D39" s="4">
         <v>5.6</v>
       </c>
       <c r="E39" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F39" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G39" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>122</v>
@@ -5430,7 +6084,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" ht="159.75" customHeight="1">
+    <row r="40" spans="1:10" ht="159.75" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>124</v>
       </c>
@@ -5445,10 +6099,10 @@
         <v>3.2</v>
       </c>
       <c r="F40" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G40" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>125</v>
@@ -5460,7 +6114,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" ht="159.75" customHeight="1">
+    <row r="41" spans="1:10" ht="159.75" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>127</v>
       </c>
@@ -5469,13 +6123,13 @@
         <v>410.88</v>
       </c>
       <c r="D41" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E41" s="4">
         <v>2.6</v>
       </c>
       <c r="F41" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G41" s="4">
         <v>69.8</v>
@@ -5490,7 +6144,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" ht="159.75" customHeight="1">
+    <row r="42" spans="1:10" ht="159.75" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>130</v>
       </c>
@@ -5508,7 +6162,7 @@
         <v>9.4</v>
       </c>
       <c r="G42" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>131</v>
@@ -5520,13 +6174,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" ht="159.75" customHeight="1">
+    <row r="43" spans="1:10" ht="159.75" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
-        <v>413.308</v>
+        <v>413.30799999999999</v>
       </c>
       <c r="D43" s="4">
         <v>5.3</v>
@@ -5535,7 +6189,7 @@
         <v>3.3</v>
       </c>
       <c r="F43" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G43" s="4">
         <v>83.8</v>
@@ -5550,13 +6204,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" ht="159.75" customHeight="1">
+    <row r="44" spans="1:10" ht="159.75" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
-        <v>441.362</v>
+        <v>441.36200000000002</v>
       </c>
       <c r="D44" s="4">
         <v>5.3</v>
@@ -5565,10 +6219,10 @@
         <v>4.2</v>
       </c>
       <c r="F44" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G44" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>137</v>
@@ -5580,7 +6234,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" ht="159.75" customHeight="1">
+    <row r="45" spans="1:10" ht="159.75" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>139</v>
       </c>
@@ -5589,13 +6243,13 @@
         <v>392.89</v>
       </c>
       <c r="D45" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E45" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F45" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G45" s="4">
         <v>69.8</v>
@@ -5610,25 +6264,25 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" ht="159.75" customHeight="1">
+    <row r="46" spans="1:10" ht="159.75" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
-        <v>441.362</v>
+        <v>441.36200000000002</v>
       </c>
       <c r="D46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E46" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F46" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G46" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>143</v>
@@ -5640,13 +6294,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" ht="159.75" customHeight="1">
+    <row r="47" spans="1:10" ht="159.75" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
-        <v>477.284</v>
+        <v>477.28399999999999</v>
       </c>
       <c r="D47" s="4">
         <v>5.4</v>
@@ -5655,7 +6309,7 @@
         <v>3.4</v>
       </c>
       <c r="F47" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G47" s="4">
         <v>83.8</v>
@@ -5670,22 +6324,22 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" ht="159.75" customHeight="1">
+    <row r="48" spans="1:10" ht="159.75" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
-        <v>429.343</v>
+        <v>429.34300000000002</v>
       </c>
       <c r="D48" s="4">
         <v>4.8</v>
       </c>
       <c r="E48" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F48" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G48" s="4">
         <v>69.8</v>
@@ -5700,13 +6354,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" ht="159.75" customHeight="1">
+    <row r="49" spans="1:10" ht="159.75" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
-        <v>394.425</v>
+        <v>394.42500000000001</v>
       </c>
       <c r="D49" s="4">
         <v>3.7</v>
@@ -5715,10 +6369,10 @@
         <v>2.9</v>
       </c>
       <c r="F49" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G49" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>152</v>
@@ -5730,7 +6384,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" ht="159.75" customHeight="1">
+    <row r="50" spans="1:10" ht="159.75" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>154</v>
       </c>
@@ -5739,13 +6393,13 @@
         <v>392.89</v>
       </c>
       <c r="D50" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E50" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F50" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G50" s="4">
         <v>69.8</v>
@@ -5760,7 +6414,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" ht="159.75" customHeight="1">
+    <row r="51" spans="1:10" ht="159.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>157</v>
       </c>
@@ -5769,16 +6423,16 @@
         <v>410.88</v>
       </c>
       <c r="D51" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E51" s="4">
         <v>3.3</v>
       </c>
       <c r="F51" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G51" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>158</v>
@@ -5790,22 +6444,22 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" ht="159.75" customHeight="1">
+    <row r="52" spans="1:10" ht="159.75" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
-        <v>380.398</v>
+        <v>380.39800000000002</v>
       </c>
       <c r="D52" s="4">
         <v>3.5</v>
       </c>
       <c r="E52" s="4">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F52" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G52" s="4">
         <v>69.8</v>
@@ -5820,22 +6474,22 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" ht="159.75" customHeight="1">
+    <row r="53" spans="1:10" ht="159.75" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>163</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
-        <v>382.826</v>
+        <v>382.82600000000002</v>
       </c>
       <c r="D53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E53" s="4">
         <v>2.4</v>
       </c>
       <c r="F53" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G53" s="4">
         <v>83.8</v>
@@ -5850,22 +6504,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" ht="159.75" customHeight="1">
+    <row r="54" spans="1:10" ht="159.75" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
-        <v>415.316</v>
+        <v>415.31599999999997</v>
       </c>
       <c r="D54" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E54" s="4">
         <v>2.8</v>
       </c>
       <c r="F54" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G54" s="4">
         <v>83.8</v>
@@ -5880,22 +6534,22 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" ht="159.75" customHeight="1">
+    <row r="55" spans="1:10" ht="159.75" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
-        <v>437.341</v>
+        <v>437.34100000000001</v>
       </c>
       <c r="D55" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E55" s="4">
         <v>2.8</v>
       </c>
       <c r="F55" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G55" s="4">
         <v>69.8</v>
@@ -5910,7 +6564,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" ht="159.75" customHeight="1">
+    <row r="56" spans="1:10" ht="159.75" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>172</v>
       </c>
@@ -5919,13 +6573,13 @@
         <v>483.399</v>
       </c>
       <c r="D56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E56" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F56" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G56" s="4">
         <v>70.2</v>
@@ -5940,22 +6594,22 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" ht="159.75" customHeight="1">
+    <row r="57" spans="1:10" ht="159.75" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
-        <v>427.277</v>
+        <v>427.27699999999999</v>
       </c>
       <c r="D57" s="4">
         <v>4.2</v>
       </c>
       <c r="E57" s="4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F57" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G57" s="4">
         <v>83.8</v>
@@ -5970,7 +6624,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" ht="159.75" customHeight="1">
+    <row r="58" spans="1:10" ht="159.75" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>178</v>
       </c>
@@ -5979,13 +6633,13 @@
         <v>378.863</v>
       </c>
       <c r="D58" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E58" s="4">
         <v>2.5</v>
       </c>
       <c r="F58" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G58" s="4">
         <v>69.8</v>
@@ -6000,13 +6654,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" ht="159.75" customHeight="1">
+    <row r="59" spans="1:10" ht="159.75" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
-        <v>469.372</v>
+        <v>469.37200000000001</v>
       </c>
       <c r="D59" s="4">
         <v>4.7</v>
@@ -6030,22 +6684,22 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" ht="159.75" customHeight="1">
+    <row r="60" spans="1:10" ht="159.75" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
-        <v>429.343</v>
+        <v>429.34300000000002</v>
       </c>
       <c r="D60" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E60" s="4">
         <v>3.1</v>
       </c>
       <c r="F60" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G60" s="4">
         <v>69.8</v>
@@ -6060,25 +6714,25 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" ht="159.75" customHeight="1">
+    <row r="61" spans="1:10" ht="159.75" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
-        <v>396.397</v>
+        <v>396.39699999999999</v>
       </c>
       <c r="D61" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E61" s="4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F61" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G61" s="4">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>188</v>
@@ -6090,13 +6744,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" ht="159.75" customHeight="1">
+    <row r="62" spans="1:10" ht="159.75" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
-        <v>396.853</v>
+        <v>396.85300000000001</v>
       </c>
       <c r="D62" s="4">
         <v>3.9</v>
@@ -6105,7 +6759,7 @@
         <v>2.6</v>
       </c>
       <c r="F62" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G62" s="4">
         <v>69.8</v>
@@ -6120,13 +6774,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" ht="159.75" customHeight="1">
+    <row r="63" spans="1:10" ht="159.75" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
-        <v>382.826</v>
+        <v>382.82600000000002</v>
       </c>
       <c r="D63" s="4">
         <v>4.2</v>
@@ -6135,7 +6789,7 @@
         <v>2.5</v>
       </c>
       <c r="F63" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G63" s="4">
         <v>83.8</v>
@@ -6150,22 +6804,22 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" ht="159.75" customHeight="1">
+    <row r="64" spans="1:10" ht="159.75" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
-        <v>427.277</v>
+        <v>427.27699999999999</v>
       </c>
       <c r="D64" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E64" s="4">
         <v>2.8</v>
       </c>
       <c r="F64" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G64" s="4">
         <v>83.8</v>
@@ -6180,22 +6834,22 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" ht="159.75" customHeight="1">
+    <row r="65" spans="1:10" ht="159.75" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
-        <v>427.335</v>
+        <v>427.33499999999998</v>
       </c>
       <c r="D65" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E65" s="4">
         <v>3.5</v>
       </c>
       <c r="F65" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G65" s="4">
         <v>69.8</v>
@@ -6210,13 +6864,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" ht="159.75" customHeight="1">
+    <row r="66" spans="1:10" ht="159.75" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>201</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
-        <v>380.398</v>
+        <v>380.39800000000002</v>
       </c>
       <c r="D66" s="4">
         <v>3.4</v>
@@ -6225,7 +6879,7 @@
         <v>2.1</v>
       </c>
       <c r="F66" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G66" s="4">
         <v>69.8</v>
@@ -6240,7 +6894,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="159.75" customHeight="1">
+    <row r="67" spans="1:10" ht="159.75" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>204</v>
       </c>
@@ -6249,16 +6903,16 @@
         <v>414.387</v>
       </c>
       <c r="D67" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E67" s="4">
         <v>2.7</v>
       </c>
       <c r="F67" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G67" s="4">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>205</v>
@@ -6270,13 +6924,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="68" ht="159.75" customHeight="1">
+    <row r="68" spans="1:10" ht="159.75" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
-        <v>466.385</v>
+        <v>466.38499999999999</v>
       </c>
       <c r="D68" s="4">
         <v>5.5</v>
@@ -6285,7 +6939,7 @@
         <v>3.2</v>
       </c>
       <c r="F68" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G68" s="4">
         <v>83.8</v>
@@ -6300,7 +6954,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" ht="159.75" customHeight="1">
+    <row r="69" spans="1:10" ht="159.75" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>210</v>
       </c>
@@ -6309,13 +6963,13 @@
         <v>378.863</v>
       </c>
       <c r="D69" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E69" s="4">
         <v>2.5</v>
       </c>
       <c r="F69" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G69" s="4">
         <v>69.8</v>
@@ -6330,13 +6984,13 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" ht="159.75" customHeight="1">
+    <row r="70" spans="1:10" ht="159.75" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
-        <v>366.371</v>
+        <v>366.37099999999998</v>
       </c>
       <c r="D70" s="4">
         <v>3.5</v>
@@ -6345,7 +6999,7 @@
         <v>1.9</v>
       </c>
       <c r="F70" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G70" s="4">
         <v>83.8</v>
@@ -6360,22 +7014,22 @@
         <v>215</v>
       </c>
     </row>
-    <row r="71" ht="159.75" customHeight="1">
+    <row r="71" spans="1:10" ht="159.75" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>216</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
-        <v>366.371</v>
+        <v>366.37099999999998</v>
       </c>
       <c r="D71" s="4">
         <v>3.6</v>
       </c>
       <c r="E71" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F71" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G71" s="4">
         <v>83.8</v>
@@ -6390,22 +7044,22 @@
         <v>218</v>
       </c>
     </row>
-    <row r="72" ht="159.75" customHeight="1">
+    <row r="72" spans="1:10" ht="159.75" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>219</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
-        <v>380.398</v>
+        <v>380.39800000000002</v>
       </c>
       <c r="D72" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E72" s="4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F72" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G72" s="4">
         <v>83.8</v>
@@ -6420,13 +7074,13 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" ht="159.75" customHeight="1">
+    <row r="73" spans="1:10" ht="159.75" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
-        <v>427.335</v>
+        <v>427.33499999999998</v>
       </c>
       <c r="D73" s="4">
         <v>5.9</v>
@@ -6435,7 +7089,7 @@
         <v>3.7</v>
       </c>
       <c r="F73" s="4">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G73" s="4">
         <v>83.8</v>
@@ -6450,16 +7104,16 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" ht="159.75" customHeight="1">
+    <row r="74" spans="1:10" ht="159.75" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>225</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
-        <v>485.371</v>
+        <v>485.37099999999998</v>
       </c>
       <c r="D74" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E74" s="4">
         <v>3.6</v>
@@ -6480,19 +7134,19 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" ht="159.75" customHeight="1">
+    <row r="75" spans="1:10" ht="159.75" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>228</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
-        <v>485.371</v>
+        <v>485.37099999999998</v>
       </c>
       <c r="D75" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E75" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F75" s="4">
         <v>7.7</v>
@@ -6510,7 +7164,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="76" ht="159.75" customHeight="1">
+    <row r="76" spans="1:10" ht="159.75" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>231</v>
       </c>
@@ -6525,10 +7179,10 @@
         <v>2.8</v>
       </c>
       <c r="F76" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G76" s="4">
-        <v>73.9</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>232</v>
@@ -6540,22 +7194,22 @@
         <v>233</v>
       </c>
     </row>
-    <row r="77" ht="159.75" customHeight="1">
+    <row r="77" spans="1:10" ht="159.75" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
-        <v>398.388</v>
+        <v>398.38799999999998</v>
       </c>
       <c r="D77" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E77" s="4">
         <v>2.4</v>
       </c>
       <c r="F77" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G77" s="4">
         <v>83.8</v>
@@ -6570,13 +7224,13 @@
         <v>236</v>
       </c>
     </row>
-    <row r="78" ht="159.75" customHeight="1">
+    <row r="78" spans="1:10" ht="159.75" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
-        <v>394.425</v>
+        <v>394.42500000000001</v>
       </c>
       <c r="D78" s="4">
         <v>4.5</v>
@@ -6585,7 +7239,7 @@
         <v>2.5</v>
       </c>
       <c r="F78" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G78" s="4">
         <v>69.8</v>
@@ -6600,7 +7254,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" ht="159.75" customHeight="1">
+    <row r="79" spans="1:10" ht="159.75" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>240</v>
       </c>
@@ -6615,10 +7269,10 @@
         <v>3.2</v>
       </c>
       <c r="F79" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G79" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>241</v>
@@ -6630,13 +7284,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" ht="159.75" customHeight="1">
+    <row r="80" spans="1:10" ht="159.75" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4">
-        <v>412.415</v>
+        <v>412.41500000000002</v>
       </c>
       <c r="D80" s="4">
         <v>4.3</v>
@@ -6645,7 +7299,7 @@
         <v>2.6</v>
       </c>
       <c r="F80" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G80" s="4">
         <v>69.8</v>
@@ -6660,13 +7314,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="81" ht="159.75" customHeight="1">
+    <row r="81" spans="1:10" ht="159.75" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>246</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4">
-        <v>399.376</v>
+        <v>399.37599999999998</v>
       </c>
       <c r="D81" s="4">
         <v>3.5</v>
@@ -6675,7 +7329,7 @@
         <v>1.9</v>
       </c>
       <c r="F81" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G81" s="4">
         <v>96.7</v>
@@ -6684,28 +7338,28 @@
         <v>247</v>
       </c>
       <c r="I81" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="82" ht="159.75" customHeight="1">
+    <row r="82" spans="1:10" ht="159.75" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>249</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4">
-        <v>364.836</v>
+        <v>364.83600000000001</v>
       </c>
       <c r="D82" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E82" s="4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F82" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G82" s="4">
         <v>83.8</v>
@@ -6720,13 +7374,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="83" ht="159.75" customHeight="1">
+    <row r="83" spans="1:10" ht="159.75" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>252</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
-        <v>430.405</v>
+        <v>430.40499999999997</v>
       </c>
       <c r="D83" s="4">
         <v>4.3</v>
@@ -6735,7 +7389,7 @@
         <v>2.7</v>
       </c>
       <c r="F83" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G83" s="4">
         <v>69.8</v>
@@ -6750,13 +7404,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="84" ht="159.75" customHeight="1">
+    <row r="84" spans="1:10" ht="159.75" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4">
-        <v>426.442</v>
+        <v>426.44200000000001</v>
       </c>
       <c r="D84" s="4">
         <v>4.5</v>
@@ -6765,10 +7419,10 @@
         <v>3.3</v>
       </c>
       <c r="F84" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G84" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>256</v>
@@ -6780,13 +7434,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" ht="159.75" customHeight="1">
+    <row r="85" spans="1:10" ht="159.75" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>259</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4">
-        <v>348.381</v>
+        <v>348.38099999999997</v>
       </c>
       <c r="D85" s="4">
         <v>3.6</v>
@@ -6795,7 +7449,7 @@
         <v>1.9</v>
       </c>
       <c r="F85" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G85" s="4">
         <v>83.8</v>
@@ -6810,13 +7464,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" ht="159.75" customHeight="1">
+    <row r="86" spans="1:10" ht="159.75" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>262</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4">
-        <v>409.287</v>
+        <v>409.28699999999998</v>
       </c>
       <c r="D86" s="4">
         <v>4.3</v>
@@ -6825,7 +7479,7 @@
         <v>2.6</v>
       </c>
       <c r="F86" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G86" s="4">
         <v>83.8</v>
@@ -6840,13 +7494,13 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" ht="159.75" customHeight="1">
+    <row r="87" spans="1:10" ht="159.75" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>265</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
-        <v>360.417</v>
+        <v>360.41699999999997</v>
       </c>
       <c r="D87" s="4">
         <v>3.4</v>
@@ -6855,10 +7509,10 @@
         <v>1.8</v>
       </c>
       <c r="F87" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G87" s="4">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>266</v>
@@ -6870,7 +7524,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" ht="159.75" customHeight="1">
+    <row r="88" spans="1:10" ht="159.75" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>268</v>
       </c>
@@ -6885,10 +7539,10 @@
         <v>2.6</v>
       </c>
       <c r="F88" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G88" s="4">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>269</v>
@@ -6900,13 +7554,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" ht="159.75" customHeight="1">
+    <row r="89" spans="1:10" ht="159.75" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>271</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4">
-        <v>390.443</v>
+        <v>390.44299999999998</v>
       </c>
       <c r="D89" s="4">
         <v>3.1</v>
@@ -6915,7 +7569,7 @@
         <v>1.6</v>
       </c>
       <c r="F89" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G89" s="4">
         <v>102.3</v>
@@ -6930,22 +7584,22 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" ht="159.75" customHeight="1">
+    <row r="90" spans="1:10" ht="159.75" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>274</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4">
-        <v>416.378</v>
+        <v>416.37799999999999</v>
       </c>
       <c r="D90" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E90" s="4">
         <v>2.5</v>
       </c>
       <c r="F90" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G90" s="4">
         <v>83.8</v>
@@ -6960,7 +7614,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" ht="159.75" customHeight="1">
+    <row r="91" spans="1:10" ht="159.75" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>277</v>
       </c>
@@ -6969,13 +7623,13 @@
         <v>404.47</v>
       </c>
       <c r="D91" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E91" s="4">
         <v>1.8</v>
       </c>
       <c r="F91" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G91" s="4">
         <v>88.3</v>
@@ -6990,13 +7644,13 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" ht="159.75" customHeight="1">
+    <row r="92" spans="1:10" ht="159.75" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>280</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4">
-        <v>444.432</v>
+        <v>444.43200000000002</v>
       </c>
       <c r="D92" s="4">
         <v>4.5</v>
@@ -7005,10 +7659,10 @@
         <v>3.4</v>
       </c>
       <c r="F92" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G92" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>281</v>
@@ -7020,13 +7674,13 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" ht="159.75" customHeight="1">
+    <row r="93" spans="1:10" ht="159.75" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>283</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4">
-        <v>358.445</v>
+        <v>358.44499999999999</v>
       </c>
       <c r="D93" s="4">
         <v>3.7</v>
@@ -7035,7 +7689,7 @@
         <v>2.5</v>
       </c>
       <c r="F93" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G93" s="4">
         <v>69.8</v>
@@ -7050,13 +7704,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" ht="159.75" customHeight="1">
+    <row r="94" spans="1:10" ht="159.75" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>286</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4">
-        <v>372.472</v>
+        <v>372.47199999999998</v>
       </c>
       <c r="D94" s="4">
         <v>3.9</v>
@@ -7065,10 +7719,10 @@
         <v>3.2</v>
       </c>
       <c r="F94" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G94" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>287</v>
@@ -7080,13 +7734,13 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" ht="159.75" customHeight="1">
+    <row r="95" spans="1:10" ht="159.75" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>289</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4">
-        <v>418.497</v>
+        <v>418.49700000000001</v>
       </c>
       <c r="D95" s="4">
         <v>3.2</v>
@@ -7095,7 +7749,7 @@
         <v>2.5</v>
       </c>
       <c r="F95" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G95" s="4">
         <v>79.5</v>
@@ -7110,22 +7764,22 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" ht="159.75" customHeight="1">
+    <row r="96" spans="1:10" ht="159.75" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>292</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4">
-        <v>451.571</v>
+        <v>451.57100000000003</v>
       </c>
       <c r="D96" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E96" s="4">
         <v>2.9</v>
       </c>
       <c r="F96" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G96" s="4">
         <v>99.4</v>
@@ -7140,13 +7794,13 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" ht="159.75" customHeight="1">
+    <row r="97" spans="1:10" ht="159.75" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>295</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4">
-        <v>350.466</v>
+        <v>350.46600000000001</v>
       </c>
       <c r="D97" s="4">
         <v>3.8</v>
@@ -7155,7 +7809,7 @@
         <v>2.4</v>
       </c>
       <c r="F97" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G97" s="4">
         <v>69.8</v>
@@ -7170,22 +7824,22 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" ht="159.75" customHeight="1">
+    <row r="98" spans="1:10" ht="159.75" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>298</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4">
-        <v>344.418</v>
+        <v>344.41800000000001</v>
       </c>
       <c r="D98" s="4">
         <v>3.3</v>
       </c>
       <c r="E98" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F98" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G98" s="4">
         <v>69.8</v>
@@ -7200,22 +7854,22 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" ht="159.75" customHeight="1">
+    <row r="99" spans="1:10" ht="159.75" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>301</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4">
-        <v>362.408</v>
+        <v>362.40800000000002</v>
       </c>
       <c r="D99" s="4">
         <v>3.4</v>
       </c>
       <c r="E99" s="4">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F99" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G99" s="4">
         <v>69.8</v>
@@ -7230,22 +7884,22 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" ht="159.75" customHeight="1">
+    <row r="100" spans="1:10" ht="159.75" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>304</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4">
-        <v>358.445</v>
+        <v>358.44499999999999</v>
       </c>
       <c r="D100" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E100" s="4">
         <v>2.5</v>
       </c>
       <c r="F100" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G100" s="4">
         <v>69.8</v>
@@ -7260,13 +7914,13 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" ht="159.75" customHeight="1">
+    <row r="101" spans="1:10" ht="159.75" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>307</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4">
-        <v>310.401</v>
+        <v>310.40100000000001</v>
       </c>
       <c r="D101" s="4">
         <v>2.8</v>
@@ -7275,7 +7929,7 @@
         <v>1.9</v>
       </c>
       <c r="F101" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G101" s="4">
         <v>69.8</v>
@@ -7290,22 +7944,22 @@
         <v>310</v>
       </c>
     </row>
-    <row r="102" ht="159.75" customHeight="1">
+    <row r="102" spans="1:10" ht="159.75" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>311</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4">
-        <v>488.183</v>
+        <v>488.18299999999999</v>
       </c>
       <c r="D102" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E102" s="4">
         <v>3.1</v>
       </c>
       <c r="F102" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G102" s="4">
         <v>83.8</v>
@@ -7320,7 +7974,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="103" ht="159.75" customHeight="1">
+    <row r="103" spans="1:10" ht="159.75" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>314</v>
       </c>
@@ -7335,7 +7989,7 @@
         <v>1.6</v>
       </c>
       <c r="F103" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G103" s="4">
         <v>102.3</v>
@@ -7350,13 +8004,13 @@
         <v>317</v>
       </c>
     </row>
-    <row r="104" ht="159.75" customHeight="1">
+    <row r="104" spans="1:10" ht="159.75" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>318</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4">
-        <v>388.427</v>
+        <v>388.42700000000002</v>
       </c>
       <c r="D104" s="4">
         <v>3.2</v>
@@ -7365,7 +8019,7 @@
         <v>1.9</v>
       </c>
       <c r="F104" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G104" s="4">
         <v>88.3</v>
@@ -7380,13 +8034,13 @@
         <v>320</v>
       </c>
     </row>
-    <row r="105" ht="159.75" customHeight="1">
+    <row r="105" spans="1:10" ht="159.75" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>321</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4">
-        <v>402.454</v>
+        <v>402.45400000000001</v>
       </c>
       <c r="D105" s="4">
         <v>3.4</v>
@@ -7395,7 +8049,7 @@
         <v>2.5</v>
       </c>
       <c r="F105" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G105" s="4">
         <v>79.5</v>
@@ -7410,13 +8064,13 @@
         <v>323</v>
       </c>
     </row>
-    <row r="106" ht="159.75" customHeight="1">
+    <row r="106" spans="1:10" ht="159.75" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>324</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4">
-        <v>402.454</v>
+        <v>402.45400000000001</v>
       </c>
       <c r="D106" s="4">
         <v>3.4</v>
@@ -7425,7 +8079,7 @@
         <v>1.8</v>
       </c>
       <c r="F106" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G106" s="4">
         <v>88.3</v>
@@ -7440,2691 +8094,2690 @@
         <v>326</v>
       </c>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:10" ht="14.25" customHeight="1">
       <c r="I107" s="3"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:10" ht="14.25" customHeight="1">
       <c r="I108" s="3"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:10" ht="14.25" customHeight="1">
       <c r="I109" s="3"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:10" ht="14.25" customHeight="1">
       <c r="I110" s="3"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:10" ht="14.25" customHeight="1">
       <c r="I111" s="3"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:10" ht="14.25" customHeight="1">
       <c r="I112" s="3"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="9:9" ht="14.25" customHeight="1">
       <c r="I113" s="3"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="9:9" ht="14.25" customHeight="1">
       <c r="I114" s="3"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="9:9" ht="14.25" customHeight="1">
       <c r="I115" s="3"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="9:9" ht="14.25" customHeight="1">
       <c r="I116" s="3"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="9:9" ht="14.25" customHeight="1">
       <c r="I117" s="3"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="9:9" ht="14.25" customHeight="1">
       <c r="I118" s="3"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="9:9" ht="14.25" customHeight="1">
       <c r="I119" s="3"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="9:9" ht="14.25" customHeight="1">
       <c r="I120" s="3"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="9:9" ht="14.25" customHeight="1">
       <c r="I121" s="3"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="9:9" ht="14.25" customHeight="1">
       <c r="I122" s="3"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="9:9" ht="14.25" customHeight="1">
       <c r="I123" s="3"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="9:9" ht="14.25" customHeight="1">
       <c r="I124" s="3"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="9:9" ht="14.25" customHeight="1">
       <c r="I125" s="3"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="9:9" ht="14.25" customHeight="1">
       <c r="I126" s="3"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="9:9" ht="14.25" customHeight="1">
       <c r="I127" s="3"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="9:9" ht="14.25" customHeight="1">
       <c r="I128" s="3"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="9:9" ht="14.25" customHeight="1">
       <c r="I129" s="3"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="9:9" ht="14.25" customHeight="1">
       <c r="I130" s="3"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="9:9" ht="14.25" customHeight="1">
       <c r="I131" s="3"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="9:9" ht="14.25" customHeight="1">
       <c r="I132" s="3"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="9:9" ht="14.25" customHeight="1">
       <c r="I133" s="3"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="9:9" ht="14.25" customHeight="1">
       <c r="I134" s="3"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="9:9" ht="14.25" customHeight="1">
       <c r="I135" s="3"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="9:9" ht="14.25" customHeight="1">
       <c r="I136" s="3"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="9:9" ht="14.25" customHeight="1">
       <c r="I137" s="3"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="9:9" ht="14.25" customHeight="1">
       <c r="I138" s="3"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="9:9" ht="14.25" customHeight="1">
       <c r="I139" s="3"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="9:9" ht="14.25" customHeight="1">
       <c r="I140" s="3"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="9:9" ht="14.25" customHeight="1">
       <c r="I141" s="3"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="9:9" ht="14.25" customHeight="1">
       <c r="I142" s="3"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="9:9" ht="14.25" customHeight="1">
       <c r="I143" s="3"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="9:9" ht="14.25" customHeight="1">
       <c r="I144" s="3"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="9:9" ht="14.25" customHeight="1">
       <c r="I145" s="3"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="9:9" ht="14.25" customHeight="1">
       <c r="I146" s="3"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="9:9" ht="14.25" customHeight="1">
       <c r="I147" s="3"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="9:9" ht="14.25" customHeight="1">
       <c r="I148" s="3"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="9:9" ht="14.25" customHeight="1">
       <c r="I149" s="3"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="9:9" ht="14.25" customHeight="1">
       <c r="I150" s="3"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="9:9" ht="14.25" customHeight="1">
       <c r="I151" s="3"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="9:9" ht="14.25" customHeight="1">
       <c r="I152" s="3"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="9:9" ht="14.25" customHeight="1">
       <c r="I153" s="3"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="9:9" ht="14.25" customHeight="1">
       <c r="I154" s="3"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="9:9" ht="14.25" customHeight="1">
       <c r="I155" s="3"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="9:9" ht="14.25" customHeight="1">
       <c r="I156" s="3"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="9:9" ht="14.25" customHeight="1">
       <c r="I157" s="3"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="9:9" ht="14.25" customHeight="1">
       <c r="I158" s="3"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="9:9" ht="14.25" customHeight="1">
       <c r="I159" s="3"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="9:9" ht="14.25" customHeight="1">
       <c r="I160" s="3"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="9:9" ht="14.25" customHeight="1">
       <c r="I161" s="3"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="9:9" ht="14.25" customHeight="1">
       <c r="I162" s="3"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="9:9" ht="14.25" customHeight="1">
       <c r="I163" s="3"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="9:9" ht="14.25" customHeight="1">
       <c r="I164" s="3"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="9:9" ht="14.25" customHeight="1">
       <c r="I165" s="3"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="9:9" ht="14.25" customHeight="1">
       <c r="I166" s="3"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="9:9" ht="14.25" customHeight="1">
       <c r="I167" s="3"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="9:9" ht="14.25" customHeight="1">
       <c r="I168" s="3"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="9:9" ht="14.25" customHeight="1">
       <c r="I169" s="3"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="9:9" ht="14.25" customHeight="1">
       <c r="I170" s="3"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="9:9" ht="14.25" customHeight="1">
       <c r="I171" s="3"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="9:9" ht="14.25" customHeight="1">
       <c r="I172" s="3"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="9:9" ht="14.25" customHeight="1">
       <c r="I173" s="3"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="9:9" ht="14.25" customHeight="1">
       <c r="I174" s="3"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="9:9" ht="14.25" customHeight="1">
       <c r="I175" s="3"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="9:9" ht="14.25" customHeight="1">
       <c r="I176" s="3"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="9:9" ht="14.25" customHeight="1">
       <c r="I177" s="3"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="9:9" ht="14.25" customHeight="1">
       <c r="I178" s="3"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="9:9" ht="14.25" customHeight="1">
       <c r="I179" s="3"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="9:9" ht="14.25" customHeight="1">
       <c r="I180" s="3"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="9:9" ht="14.25" customHeight="1">
       <c r="I181" s="3"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="9:9" ht="14.25" customHeight="1">
       <c r="I182" s="3"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="9:9" ht="14.25" customHeight="1">
       <c r="I183" s="3"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="9:9" ht="14.25" customHeight="1">
       <c r="I184" s="3"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="9:9" ht="14.25" customHeight="1">
       <c r="I185" s="3"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="9:9" ht="14.25" customHeight="1">
       <c r="I186" s="3"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="9:9" ht="14.25" customHeight="1">
       <c r="I187" s="3"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="9:9" ht="14.25" customHeight="1">
       <c r="I188" s="3"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="9:9" ht="14.25" customHeight="1">
       <c r="I189" s="3"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="9:9" ht="14.25" customHeight="1">
       <c r="I190" s="3"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="9:9" ht="14.25" customHeight="1">
       <c r="I191" s="3"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="9:9" ht="14.25" customHeight="1">
       <c r="I192" s="3"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="9:9" ht="14.25" customHeight="1">
       <c r="I193" s="3"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="9:9" ht="14.25" customHeight="1">
       <c r="I194" s="3"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="9:9" ht="14.25" customHeight="1">
       <c r="I195" s="3"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="9:9" ht="14.25" customHeight="1">
       <c r="I196" s="3"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="9:9" ht="14.25" customHeight="1">
       <c r="I197" s="3"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="9:9" ht="14.25" customHeight="1">
       <c r="I198" s="3"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="9:9" ht="14.25" customHeight="1">
       <c r="I199" s="3"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="9:9" ht="14.25" customHeight="1">
       <c r="I200" s="3"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="9:9" ht="14.25" customHeight="1">
       <c r="I201" s="3"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="9:9" ht="14.25" customHeight="1">
       <c r="I202" s="3"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="9:9" ht="14.25" customHeight="1">
       <c r="I203" s="3"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="9:9" ht="14.25" customHeight="1">
       <c r="I204" s="3"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="9:9" ht="14.25" customHeight="1">
       <c r="I205" s="3"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="9:9" ht="14.25" customHeight="1">
       <c r="I206" s="3"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="9:9" ht="14.25" customHeight="1">
       <c r="I207" s="3"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="9:9" ht="14.25" customHeight="1">
       <c r="I208" s="3"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="9:9" ht="14.25" customHeight="1">
       <c r="I209" s="3"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="9:9" ht="14.25" customHeight="1">
       <c r="I210" s="3"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="9:9" ht="14.25" customHeight="1">
       <c r="I211" s="3"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="9:9" ht="14.25" customHeight="1">
       <c r="I212" s="3"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="9:9" ht="14.25" customHeight="1">
       <c r="I213" s="3"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="9:9" ht="14.25" customHeight="1">
       <c r="I214" s="3"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="9:9" ht="14.25" customHeight="1">
       <c r="I215" s="3"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="9:9" ht="14.25" customHeight="1">
       <c r="I216" s="3"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="9:9" ht="14.25" customHeight="1">
       <c r="I217" s="3"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="9:9" ht="14.25" customHeight="1">
       <c r="I218" s="3"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="9:9" ht="14.25" customHeight="1">
       <c r="I219" s="3"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="9:9" ht="14.25" customHeight="1">
       <c r="I220" s="3"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="9:9" ht="14.25" customHeight="1">
       <c r="I221" s="3"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="9:9" ht="14.25" customHeight="1">
       <c r="I222" s="3"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="9:9" ht="14.25" customHeight="1">
       <c r="I223" s="3"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="9:9" ht="14.25" customHeight="1">
       <c r="I224" s="3"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="9:9" ht="14.25" customHeight="1">
       <c r="I225" s="3"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="9:9" ht="14.25" customHeight="1">
       <c r="I226" s="3"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="9:9" ht="14.25" customHeight="1">
       <c r="I227" s="3"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="9:9" ht="14.25" customHeight="1">
       <c r="I228" s="3"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="9:9" ht="14.25" customHeight="1">
       <c r="I229" s="3"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="9:9" ht="14.25" customHeight="1">
       <c r="I230" s="3"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="9:9" ht="14.25" customHeight="1">
       <c r="I231" s="3"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="9:9" ht="14.25" customHeight="1">
       <c r="I232" s="3"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="9:9" ht="14.25" customHeight="1">
       <c r="I233" s="3"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="9:9" ht="14.25" customHeight="1">
       <c r="I234" s="3"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="9:9" ht="14.25" customHeight="1">
       <c r="I235" s="3"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="9:9" ht="14.25" customHeight="1">
       <c r="I236" s="3"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="9:9" ht="14.25" customHeight="1">
       <c r="I237" s="3"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="9:9" ht="14.25" customHeight="1">
       <c r="I238" s="3"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="9:9" ht="14.25" customHeight="1">
       <c r="I239" s="3"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="9:9" ht="14.25" customHeight="1">
       <c r="I240" s="3"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="9:9" ht="14.25" customHeight="1">
       <c r="I241" s="3"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="9:9" ht="14.25" customHeight="1">
       <c r="I242" s="3"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="9:9" ht="14.25" customHeight="1">
       <c r="I243" s="3"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="9:9" ht="14.25" customHeight="1">
       <c r="I244" s="3"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="9:9" ht="14.25" customHeight="1">
       <c r="I245" s="3"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="9:9" ht="14.25" customHeight="1">
       <c r="I246" s="3"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="9:9" ht="14.25" customHeight="1">
       <c r="I247" s="3"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="9:9" ht="14.25" customHeight="1">
       <c r="I248" s="3"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="9:9" ht="14.25" customHeight="1">
       <c r="I249" s="3"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="9:9" ht="14.25" customHeight="1">
       <c r="I250" s="3"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="9:9" ht="14.25" customHeight="1">
       <c r="I251" s="3"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="9:9" ht="14.25" customHeight="1">
       <c r="I252" s="3"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="9:9" ht="14.25" customHeight="1">
       <c r="I253" s="3"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="9:9" ht="14.25" customHeight="1">
       <c r="I254" s="3"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="9:9" ht="14.25" customHeight="1">
       <c r="I255" s="3"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="9:9" ht="14.25" customHeight="1">
       <c r="I256" s="3"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="9:9" ht="14.25" customHeight="1">
       <c r="I257" s="3"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="9:9" ht="14.25" customHeight="1">
       <c r="I258" s="3"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="9:9" ht="14.25" customHeight="1">
       <c r="I259" s="3"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="9:9" ht="14.25" customHeight="1">
       <c r="I260" s="3"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="9:9" ht="14.25" customHeight="1">
       <c r="I261" s="3"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="9:9" ht="14.25" customHeight="1">
       <c r="I262" s="3"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="9:9" ht="14.25" customHeight="1">
       <c r="I263" s="3"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="9:9" ht="14.25" customHeight="1">
       <c r="I264" s="3"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="9:9" ht="14.25" customHeight="1">
       <c r="I265" s="3"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="9:9" ht="14.25" customHeight="1">
       <c r="I266" s="3"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="9:9" ht="14.25" customHeight="1">
       <c r="I267" s="3"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="9:9" ht="14.25" customHeight="1">
       <c r="I268" s="3"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="9:9" ht="14.25" customHeight="1">
       <c r="I269" s="3"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="9:9" ht="14.25" customHeight="1">
       <c r="I270" s="3"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="9:9" ht="14.25" customHeight="1">
       <c r="I271" s="3"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="9:9" ht="14.25" customHeight="1">
       <c r="I272" s="3"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="9:9" ht="14.25" customHeight="1">
       <c r="I273" s="3"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="9:9" ht="14.25" customHeight="1">
       <c r="I274" s="3"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="9:9" ht="14.25" customHeight="1">
       <c r="I275" s="3"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="9:9" ht="14.25" customHeight="1">
       <c r="I276" s="3"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="9:9" ht="14.25" customHeight="1">
       <c r="I277" s="3"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="9:9" ht="14.25" customHeight="1">
       <c r="I278" s="3"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="9:9" ht="14.25" customHeight="1">
       <c r="I279" s="3"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="9:9" ht="14.25" customHeight="1">
       <c r="I280" s="3"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="9:9" ht="14.25" customHeight="1">
       <c r="I281" s="3"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="9:9" ht="14.25" customHeight="1">
       <c r="I282" s="3"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="9:9" ht="14.25" customHeight="1">
       <c r="I283" s="3"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="9:9" ht="14.25" customHeight="1">
       <c r="I284" s="3"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="9:9" ht="14.25" customHeight="1">
       <c r="I285" s="3"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="9:9" ht="14.25" customHeight="1">
       <c r="I286" s="3"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="9:9" ht="14.25" customHeight="1">
       <c r="I287" s="3"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="9:9" ht="14.25" customHeight="1">
       <c r="I288" s="3"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="9:9" ht="14.25" customHeight="1">
       <c r="I289" s="3"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="9:9" ht="14.25" customHeight="1">
       <c r="I290" s="3"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="9:9" ht="14.25" customHeight="1">
       <c r="I291" s="3"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="9:9" ht="14.25" customHeight="1">
       <c r="I292" s="3"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="9:9" ht="14.25" customHeight="1">
       <c r="I293" s="3"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="9:9" ht="14.25" customHeight="1">
       <c r="I294" s="3"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="9:9" ht="14.25" customHeight="1">
       <c r="I295" s="3"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="9:9" ht="14.25" customHeight="1">
       <c r="I296" s="3"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="9:9" ht="14.25" customHeight="1">
       <c r="I297" s="3"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="9:9" ht="14.25" customHeight="1">
       <c r="I298" s="3"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="9:9" ht="14.25" customHeight="1">
       <c r="I299" s="3"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="9:9" ht="14.25" customHeight="1">
       <c r="I300" s="3"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="9:9" ht="14.25" customHeight="1">
       <c r="I301" s="3"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="9:9" ht="14.25" customHeight="1">
       <c r="I302" s="3"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="9:9" ht="14.25" customHeight="1">
       <c r="I303" s="3"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="9:9" ht="14.25" customHeight="1">
       <c r="I304" s="3"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="9:9" ht="14.25" customHeight="1">
       <c r="I305" s="3"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="9:9" ht="14.25" customHeight="1">
       <c r="I306" s="3"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="9:9" ht="14.25" customHeight="1">
       <c r="I307" s="3"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="9:9" ht="14.25" customHeight="1">
       <c r="I308" s="3"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="9:9" ht="14.25" customHeight="1">
       <c r="I309" s="3"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="9:9" ht="14.25" customHeight="1">
       <c r="I310" s="3"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="9:9" ht="14.25" customHeight="1">
       <c r="I311" s="3"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="9:9" ht="14.25" customHeight="1">
       <c r="I312" s="3"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="9:9" ht="14.25" customHeight="1">
       <c r="I313" s="3"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="9:9" ht="14.25" customHeight="1">
       <c r="I314" s="3"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="9:9" ht="14.25" customHeight="1">
       <c r="I315" s="3"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="9:9" ht="14.25" customHeight="1">
       <c r="I316" s="3"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="9:9" ht="14.25" customHeight="1">
       <c r="I317" s="3"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="9:9" ht="14.25" customHeight="1">
       <c r="I318" s="3"/>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="9:9" ht="14.25" customHeight="1">
       <c r="I319" s="3"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="9:9" ht="14.25" customHeight="1">
       <c r="I320" s="3"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="9:9" ht="14.25" customHeight="1">
       <c r="I321" s="3"/>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="9:9" ht="14.25" customHeight="1">
       <c r="I322" s="3"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="9:9" ht="14.25" customHeight="1">
       <c r="I323" s="3"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="9:9" ht="14.25" customHeight="1">
       <c r="I324" s="3"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="9:9" ht="14.25" customHeight="1">
       <c r="I325" s="3"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="9:9" ht="14.25" customHeight="1">
       <c r="I326" s="3"/>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="9:9" ht="14.25" customHeight="1">
       <c r="I327" s="3"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="9:9" ht="14.25" customHeight="1">
       <c r="I328" s="3"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="9:9" ht="14.25" customHeight="1">
       <c r="I329" s="3"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="9:9" ht="14.25" customHeight="1">
       <c r="I330" s="3"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="9:9" ht="14.25" customHeight="1">
       <c r="I331" s="3"/>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="9:9" ht="14.25" customHeight="1">
       <c r="I332" s="3"/>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="9:9" ht="14.25" customHeight="1">
       <c r="I333" s="3"/>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="9:9" ht="14.25" customHeight="1">
       <c r="I334" s="3"/>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="9:9" ht="14.25" customHeight="1">
       <c r="I335" s="3"/>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="9:9" ht="14.25" customHeight="1">
       <c r="I336" s="3"/>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="9:9" ht="14.25" customHeight="1">
       <c r="I337" s="3"/>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="9:9" ht="14.25" customHeight="1">
       <c r="I338" s="3"/>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="9:9" ht="14.25" customHeight="1">
       <c r="I339" s="3"/>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="9:9" ht="14.25" customHeight="1">
       <c r="I340" s="3"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="9:9" ht="14.25" customHeight="1">
       <c r="I341" s="3"/>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="9:9" ht="14.25" customHeight="1">
       <c r="I342" s="3"/>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="9:9" ht="14.25" customHeight="1">
       <c r="I343" s="3"/>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="9:9" ht="14.25" customHeight="1">
       <c r="I344" s="3"/>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="9:9" ht="14.25" customHeight="1">
       <c r="I345" s="3"/>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="9:9" ht="14.25" customHeight="1">
       <c r="I346" s="3"/>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="9:9" ht="14.25" customHeight="1">
       <c r="I347" s="3"/>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="9:9" ht="14.25" customHeight="1">
       <c r="I348" s="3"/>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="9:9" ht="14.25" customHeight="1">
       <c r="I349" s="3"/>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="9:9" ht="14.25" customHeight="1">
       <c r="I350" s="3"/>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="9:9" ht="14.25" customHeight="1">
       <c r="I351" s="3"/>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="9:9" ht="14.25" customHeight="1">
       <c r="I352" s="3"/>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="9:9" ht="14.25" customHeight="1">
       <c r="I353" s="3"/>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="9:9" ht="14.25" customHeight="1">
       <c r="I354" s="3"/>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="9:9" ht="14.25" customHeight="1">
       <c r="I355" s="3"/>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="9:9" ht="14.25" customHeight="1">
       <c r="I356" s="3"/>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="9:9" ht="14.25" customHeight="1">
       <c r="I357" s="3"/>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="9:9" ht="14.25" customHeight="1">
       <c r="I358" s="3"/>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="9:9" ht="14.25" customHeight="1">
       <c r="I359" s="3"/>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="9:9" ht="14.25" customHeight="1">
       <c r="I360" s="3"/>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="9:9" ht="14.25" customHeight="1">
       <c r="I361" s="3"/>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="9:9" ht="14.25" customHeight="1">
       <c r="I362" s="3"/>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="9:9" ht="14.25" customHeight="1">
       <c r="I363" s="3"/>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="9:9" ht="14.25" customHeight="1">
       <c r="I364" s="3"/>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="9:9" ht="14.25" customHeight="1">
       <c r="I365" s="3"/>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="9:9" ht="14.25" customHeight="1">
       <c r="I366" s="3"/>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="9:9" ht="14.25" customHeight="1">
       <c r="I367" s="3"/>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="9:9" ht="14.25" customHeight="1">
       <c r="I368" s="3"/>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="9:9" ht="14.25" customHeight="1">
       <c r="I369" s="3"/>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="9:9" ht="14.25" customHeight="1">
       <c r="I370" s="3"/>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="9:9" ht="14.25" customHeight="1">
       <c r="I371" s="3"/>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="9:9" ht="14.25" customHeight="1">
       <c r="I372" s="3"/>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="9:9" ht="14.25" customHeight="1">
       <c r="I373" s="3"/>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="9:9" ht="14.25" customHeight="1">
       <c r="I374" s="3"/>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="9:9" ht="14.25" customHeight="1">
       <c r="I375" s="3"/>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="9:9" ht="14.25" customHeight="1">
       <c r="I376" s="3"/>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="9:9" ht="14.25" customHeight="1">
       <c r="I377" s="3"/>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="9:9" ht="14.25" customHeight="1">
       <c r="I378" s="3"/>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="9:9" ht="14.25" customHeight="1">
       <c r="I379" s="3"/>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="9:9" ht="14.25" customHeight="1">
       <c r="I380" s="3"/>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="9:9" ht="14.25" customHeight="1">
       <c r="I381" s="3"/>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="9:9" ht="14.25" customHeight="1">
       <c r="I382" s="3"/>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="9:9" ht="14.25" customHeight="1">
       <c r="I383" s="3"/>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="9:9" ht="14.25" customHeight="1">
       <c r="I384" s="3"/>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="9:9" ht="14.25" customHeight="1">
       <c r="I385" s="3"/>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="9:9" ht="14.25" customHeight="1">
       <c r="I386" s="3"/>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="9:9" ht="14.25" customHeight="1">
       <c r="I387" s="3"/>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="9:9" ht="14.25" customHeight="1">
       <c r="I388" s="3"/>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="9:9" ht="14.25" customHeight="1">
       <c r="I389" s="3"/>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="9:9" ht="14.25" customHeight="1">
       <c r="I390" s="3"/>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="9:9" ht="14.25" customHeight="1">
       <c r="I391" s="3"/>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="9:9" ht="14.25" customHeight="1">
       <c r="I392" s="3"/>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="9:9" ht="14.25" customHeight="1">
       <c r="I393" s="3"/>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="9:9" ht="14.25" customHeight="1">
       <c r="I394" s="3"/>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="9:9" ht="14.25" customHeight="1">
       <c r="I395" s="3"/>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="9:9" ht="14.25" customHeight="1">
       <c r="I396" s="3"/>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="9:9" ht="14.25" customHeight="1">
       <c r="I397" s="3"/>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="9:9" ht="14.25" customHeight="1">
       <c r="I398" s="3"/>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="9:9" ht="14.25" customHeight="1">
       <c r="I399" s="3"/>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="9:9" ht="14.25" customHeight="1">
       <c r="I400" s="3"/>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="9:9" ht="14.25" customHeight="1">
       <c r="I401" s="3"/>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="9:9" ht="14.25" customHeight="1">
       <c r="I402" s="3"/>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="9:9" ht="14.25" customHeight="1">
       <c r="I403" s="3"/>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="9:9" ht="14.25" customHeight="1">
       <c r="I404" s="3"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="9:9" ht="14.25" customHeight="1">
       <c r="I405" s="3"/>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="9:9" ht="14.25" customHeight="1">
       <c r="I406" s="3"/>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="9:9" ht="14.25" customHeight="1">
       <c r="I407" s="3"/>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="9:9" ht="14.25" customHeight="1">
       <c r="I408" s="3"/>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="9:9" ht="14.25" customHeight="1">
       <c r="I409" s="3"/>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="9:9" ht="14.25" customHeight="1">
       <c r="I410" s="3"/>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="9:9" ht="14.25" customHeight="1">
       <c r="I411" s="3"/>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="9:9" ht="14.25" customHeight="1">
       <c r="I412" s="3"/>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="9:9" ht="14.25" customHeight="1">
       <c r="I413" s="3"/>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="9:9" ht="14.25" customHeight="1">
       <c r="I414" s="3"/>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="9:9" ht="14.25" customHeight="1">
       <c r="I415" s="3"/>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="9:9" ht="14.25" customHeight="1">
       <c r="I416" s="3"/>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="9:9" ht="14.25" customHeight="1">
       <c r="I417" s="3"/>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="9:9" ht="14.25" customHeight="1">
       <c r="I418" s="3"/>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="9:9" ht="14.25" customHeight="1">
       <c r="I419" s="3"/>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="9:9" ht="14.25" customHeight="1">
       <c r="I420" s="3"/>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="9:9" ht="14.25" customHeight="1">
       <c r="I421" s="3"/>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="9:9" ht="14.25" customHeight="1">
       <c r="I422" s="3"/>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="9:9" ht="14.25" customHeight="1">
       <c r="I423" s="3"/>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="9:9" ht="14.25" customHeight="1">
       <c r="I424" s="3"/>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="9:9" ht="14.25" customHeight="1">
       <c r="I425" s="3"/>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="9:9" ht="14.25" customHeight="1">
       <c r="I426" s="3"/>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="9:9" ht="14.25" customHeight="1">
       <c r="I427" s="3"/>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="9:9" ht="14.25" customHeight="1">
       <c r="I428" s="3"/>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="9:9" ht="14.25" customHeight="1">
       <c r="I429" s="3"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="9:9" ht="14.25" customHeight="1">
       <c r="I430" s="3"/>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="9:9" ht="14.25" customHeight="1">
       <c r="I431" s="3"/>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="9:9" ht="14.25" customHeight="1">
       <c r="I432" s="3"/>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="9:9" ht="14.25" customHeight="1">
       <c r="I433" s="3"/>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="9:9" ht="14.25" customHeight="1">
       <c r="I434" s="3"/>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="9:9" ht="14.25" customHeight="1">
       <c r="I435" s="3"/>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="9:9" ht="14.25" customHeight="1">
       <c r="I436" s="3"/>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="9:9" ht="14.25" customHeight="1">
       <c r="I437" s="3"/>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="9:9" ht="14.25" customHeight="1">
       <c r="I438" s="3"/>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="9:9" ht="14.25" customHeight="1">
       <c r="I439" s="3"/>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="9:9" ht="14.25" customHeight="1">
       <c r="I440" s="3"/>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="9:9" ht="14.25" customHeight="1">
       <c r="I441" s="3"/>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="9:9" ht="14.25" customHeight="1">
       <c r="I442" s="3"/>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="9:9" ht="14.25" customHeight="1">
       <c r="I443" s="3"/>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="9:9" ht="14.25" customHeight="1">
       <c r="I444" s="3"/>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="9:9" ht="14.25" customHeight="1">
       <c r="I445" s="3"/>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="9:9" ht="14.25" customHeight="1">
       <c r="I446" s="3"/>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="9:9" ht="14.25" customHeight="1">
       <c r="I447" s="3"/>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="9:9" ht="14.25" customHeight="1">
       <c r="I448" s="3"/>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="9:9" ht="14.25" customHeight="1">
       <c r="I449" s="3"/>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="9:9" ht="14.25" customHeight="1">
       <c r="I450" s="3"/>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="9:9" ht="14.25" customHeight="1">
       <c r="I451" s="3"/>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="9:9" ht="14.25" customHeight="1">
       <c r="I452" s="3"/>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="9:9" ht="14.25" customHeight="1">
       <c r="I453" s="3"/>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="9:9" ht="14.25" customHeight="1">
       <c r="I454" s="3"/>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="9:9" ht="14.25" customHeight="1">
       <c r="I455" s="3"/>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="9:9" ht="14.25" customHeight="1">
       <c r="I456" s="3"/>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="9:9" ht="14.25" customHeight="1">
       <c r="I457" s="3"/>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="9:9" ht="14.25" customHeight="1">
       <c r="I458" s="3"/>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="9:9" ht="14.25" customHeight="1">
       <c r="I459" s="3"/>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="9:9" ht="14.25" customHeight="1">
       <c r="I460" s="3"/>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="9:9" ht="14.25" customHeight="1">
       <c r="I461" s="3"/>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="9:9" ht="14.25" customHeight="1">
       <c r="I462" s="3"/>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="9:9" ht="14.25" customHeight="1">
       <c r="I463" s="3"/>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="9:9" ht="14.25" customHeight="1">
       <c r="I464" s="3"/>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="9:9" ht="14.25" customHeight="1">
       <c r="I465" s="3"/>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="9:9" ht="14.25" customHeight="1">
       <c r="I466" s="3"/>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="9:9" ht="14.25" customHeight="1">
       <c r="I467" s="3"/>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="9:9" ht="14.25" customHeight="1">
       <c r="I468" s="3"/>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="9:9" ht="14.25" customHeight="1">
       <c r="I469" s="3"/>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="9:9" ht="14.25" customHeight="1">
       <c r="I470" s="3"/>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="9:9" ht="14.25" customHeight="1">
       <c r="I471" s="3"/>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="9:9" ht="14.25" customHeight="1">
       <c r="I472" s="3"/>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="9:9" ht="14.25" customHeight="1">
       <c r="I473" s="3"/>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="9:9" ht="14.25" customHeight="1">
       <c r="I474" s="3"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="9:9" ht="14.25" customHeight="1">
       <c r="I475" s="3"/>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="9:9" ht="14.25" customHeight="1">
       <c r="I476" s="3"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="9:9" ht="14.25" customHeight="1">
       <c r="I477" s="3"/>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="9:9" ht="14.25" customHeight="1">
       <c r="I478" s="3"/>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="9:9" ht="14.25" customHeight="1">
       <c r="I479" s="3"/>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="9:9" ht="14.25" customHeight="1">
       <c r="I480" s="3"/>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="9:9" ht="14.25" customHeight="1">
       <c r="I481" s="3"/>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="9:9" ht="14.25" customHeight="1">
       <c r="I482" s="3"/>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="9:9" ht="14.25" customHeight="1">
       <c r="I483" s="3"/>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="9:9" ht="14.25" customHeight="1">
       <c r="I484" s="3"/>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="9:9" ht="14.25" customHeight="1">
       <c r="I485" s="3"/>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="9:9" ht="14.25" customHeight="1">
       <c r="I486" s="3"/>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="9:9" ht="14.25" customHeight="1">
       <c r="I487" s="3"/>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="9:9" ht="14.25" customHeight="1">
       <c r="I488" s="3"/>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="9:9" ht="14.25" customHeight="1">
       <c r="I489" s="3"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="9:9" ht="14.25" customHeight="1">
       <c r="I490" s="3"/>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="9:9" ht="14.25" customHeight="1">
       <c r="I491" s="3"/>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="9:9" ht="14.25" customHeight="1">
       <c r="I492" s="3"/>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="9:9" ht="14.25" customHeight="1">
       <c r="I493" s="3"/>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="9:9" ht="14.25" customHeight="1">
       <c r="I494" s="3"/>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="9:9" ht="14.25" customHeight="1">
       <c r="I495" s="3"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="9:9" ht="14.25" customHeight="1">
       <c r="I496" s="3"/>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="9:9" ht="14.25" customHeight="1">
       <c r="I497" s="3"/>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="9:9" ht="14.25" customHeight="1">
       <c r="I498" s="3"/>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="9:9" ht="14.25" customHeight="1">
       <c r="I499" s="3"/>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="9:9" ht="14.25" customHeight="1">
       <c r="I500" s="3"/>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="9:9" ht="14.25" customHeight="1">
       <c r="I501" s="3"/>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="9:9" ht="14.25" customHeight="1">
       <c r="I502" s="3"/>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="9:9" ht="14.25" customHeight="1">
       <c r="I503" s="3"/>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="9:9" ht="14.25" customHeight="1">
       <c r="I504" s="3"/>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="9:9" ht="14.25" customHeight="1">
       <c r="I505" s="3"/>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="9:9" ht="14.25" customHeight="1">
       <c r="I506" s="3"/>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="9:9" ht="14.25" customHeight="1">
       <c r="I507" s="3"/>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="9:9" ht="14.25" customHeight="1">
       <c r="I508" s="3"/>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="9:9" ht="14.25" customHeight="1">
       <c r="I509" s="3"/>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="9:9" ht="14.25" customHeight="1">
       <c r="I510" s="3"/>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="9:9" ht="14.25" customHeight="1">
       <c r="I511" s="3"/>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="9:9" ht="14.25" customHeight="1">
       <c r="I512" s="3"/>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="9:9" ht="14.25" customHeight="1">
       <c r="I513" s="3"/>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="9:9" ht="14.25" customHeight="1">
       <c r="I514" s="3"/>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="9:9" ht="14.25" customHeight="1">
       <c r="I515" s="3"/>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="9:9" ht="14.25" customHeight="1">
       <c r="I516" s="3"/>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="9:9" ht="14.25" customHeight="1">
       <c r="I517" s="3"/>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="9:9" ht="14.25" customHeight="1">
       <c r="I518" s="3"/>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="9:9" ht="14.25" customHeight="1">
       <c r="I519" s="3"/>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="9:9" ht="14.25" customHeight="1">
       <c r="I520" s="3"/>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="9:9" ht="14.25" customHeight="1">
       <c r="I521" s="3"/>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="9:9" ht="14.25" customHeight="1">
       <c r="I522" s="3"/>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="9:9" ht="14.25" customHeight="1">
       <c r="I523" s="3"/>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="9:9" ht="14.25" customHeight="1">
       <c r="I524" s="3"/>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="9:9" ht="14.25" customHeight="1">
       <c r="I525" s="3"/>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="9:9" ht="14.25" customHeight="1">
       <c r="I526" s="3"/>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="9:9" ht="14.25" customHeight="1">
       <c r="I527" s="3"/>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="9:9" ht="14.25" customHeight="1">
       <c r="I528" s="3"/>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="9:9" ht="14.25" customHeight="1">
       <c r="I529" s="3"/>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="9:9" ht="14.25" customHeight="1">
       <c r="I530" s="3"/>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="9:9" ht="14.25" customHeight="1">
       <c r="I531" s="3"/>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="9:9" ht="14.25" customHeight="1">
       <c r="I532" s="3"/>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="9:9" ht="14.25" customHeight="1">
       <c r="I533" s="3"/>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="9:9" ht="14.25" customHeight="1">
       <c r="I534" s="3"/>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="9:9" ht="14.25" customHeight="1">
       <c r="I535" s="3"/>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="9:9" ht="14.25" customHeight="1">
       <c r="I536" s="3"/>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="9:9" ht="14.25" customHeight="1">
       <c r="I537" s="3"/>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="9:9" ht="14.25" customHeight="1">
       <c r="I538" s="3"/>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="9:9" ht="14.25" customHeight="1">
       <c r="I539" s="3"/>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="9:9" ht="14.25" customHeight="1">
       <c r="I540" s="3"/>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="9:9" ht="14.25" customHeight="1">
       <c r="I541" s="3"/>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="9:9" ht="14.25" customHeight="1">
       <c r="I542" s="3"/>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="9:9" ht="14.25" customHeight="1">
       <c r="I543" s="3"/>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="9:9" ht="14.25" customHeight="1">
       <c r="I544" s="3"/>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="9:9" ht="14.25" customHeight="1">
       <c r="I545" s="3"/>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="9:9" ht="14.25" customHeight="1">
       <c r="I546" s="3"/>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="9:9" ht="14.25" customHeight="1">
       <c r="I547" s="3"/>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="9:9" ht="14.25" customHeight="1">
       <c r="I548" s="3"/>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="9:9" ht="14.25" customHeight="1">
       <c r="I549" s="3"/>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="9:9" ht="14.25" customHeight="1">
       <c r="I550" s="3"/>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="9:9" ht="14.25" customHeight="1">
       <c r="I551" s="3"/>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="9:9" ht="14.25" customHeight="1">
       <c r="I552" s="3"/>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="9:9" ht="14.25" customHeight="1">
       <c r="I553" s="3"/>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="9:9" ht="14.25" customHeight="1">
       <c r="I554" s="3"/>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="9:9" ht="14.25" customHeight="1">
       <c r="I555" s="3"/>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="9:9" ht="14.25" customHeight="1">
       <c r="I556" s="3"/>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="9:9" ht="14.25" customHeight="1">
       <c r="I557" s="3"/>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="9:9" ht="14.25" customHeight="1">
       <c r="I558" s="3"/>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="9:9" ht="14.25" customHeight="1">
       <c r="I559" s="3"/>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="9:9" ht="14.25" customHeight="1">
       <c r="I560" s="3"/>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="9:9" ht="14.25" customHeight="1">
       <c r="I561" s="3"/>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="9:9" ht="14.25" customHeight="1">
       <c r="I562" s="3"/>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="9:9" ht="14.25" customHeight="1">
       <c r="I563" s="3"/>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="9:9" ht="14.25" customHeight="1">
       <c r="I564" s="3"/>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="9:9" ht="14.25" customHeight="1">
       <c r="I565" s="3"/>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="9:9" ht="14.25" customHeight="1">
       <c r="I566" s="3"/>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="9:9" ht="14.25" customHeight="1">
       <c r="I567" s="3"/>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="9:9" ht="14.25" customHeight="1">
       <c r="I568" s="3"/>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="9:9" ht="14.25" customHeight="1">
       <c r="I569" s="3"/>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="9:9" ht="14.25" customHeight="1">
       <c r="I570" s="3"/>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="9:9" ht="14.25" customHeight="1">
       <c r="I571" s="3"/>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="9:9" ht="14.25" customHeight="1">
       <c r="I572" s="3"/>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="9:9" ht="14.25" customHeight="1">
       <c r="I573" s="3"/>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="9:9" ht="14.25" customHeight="1">
       <c r="I574" s="3"/>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="9:9" ht="14.25" customHeight="1">
       <c r="I575" s="3"/>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="9:9" ht="14.25" customHeight="1">
       <c r="I576" s="3"/>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="9:9" ht="14.25" customHeight="1">
       <c r="I577" s="3"/>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="9:9" ht="14.25" customHeight="1">
       <c r="I578" s="3"/>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="9:9" ht="14.25" customHeight="1">
       <c r="I579" s="3"/>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="9:9" ht="14.25" customHeight="1">
       <c r="I580" s="3"/>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="9:9" ht="14.25" customHeight="1">
       <c r="I581" s="3"/>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="9:9" ht="14.25" customHeight="1">
       <c r="I582" s="3"/>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="9:9" ht="14.25" customHeight="1">
       <c r="I583" s="3"/>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="9:9" ht="14.25" customHeight="1">
       <c r="I584" s="3"/>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="9:9" ht="14.25" customHeight="1">
       <c r="I585" s="3"/>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="9:9" ht="14.25" customHeight="1">
       <c r="I586" s="3"/>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="9:9" ht="14.25" customHeight="1">
       <c r="I587" s="3"/>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="9:9" ht="14.25" customHeight="1">
       <c r="I588" s="3"/>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="9:9" ht="14.25" customHeight="1">
       <c r="I589" s="3"/>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="9:9" ht="14.25" customHeight="1">
       <c r="I590" s="3"/>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="9:9" ht="14.25" customHeight="1">
       <c r="I591" s="3"/>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="9:9" ht="14.25" customHeight="1">
       <c r="I592" s="3"/>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="9:9" ht="14.25" customHeight="1">
       <c r="I593" s="3"/>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="9:9" ht="14.25" customHeight="1">
       <c r="I594" s="3"/>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="9:9" ht="14.25" customHeight="1">
       <c r="I595" s="3"/>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="9:9" ht="14.25" customHeight="1">
       <c r="I596" s="3"/>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="9:9" ht="14.25" customHeight="1">
       <c r="I597" s="3"/>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="9:9" ht="14.25" customHeight="1">
       <c r="I598" s="3"/>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="9:9" ht="14.25" customHeight="1">
       <c r="I599" s="3"/>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="9:9" ht="14.25" customHeight="1">
       <c r="I600" s="3"/>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="9:9" ht="14.25" customHeight="1">
       <c r="I601" s="3"/>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="9:9" ht="14.25" customHeight="1">
       <c r="I602" s="3"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="9:9" ht="14.25" customHeight="1">
       <c r="I603" s="3"/>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="9:9" ht="14.25" customHeight="1">
       <c r="I604" s="3"/>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="9:9" ht="14.25" customHeight="1">
       <c r="I605" s="3"/>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="9:9" ht="14.25" customHeight="1">
       <c r="I606" s="3"/>
     </row>
-    <row r="607" ht="14.25" customHeight="1">
+    <row r="607" spans="9:9" ht="14.25" customHeight="1">
       <c r="I607" s="3"/>
     </row>
-    <row r="608" ht="14.25" customHeight="1">
+    <row r="608" spans="9:9" ht="14.25" customHeight="1">
       <c r="I608" s="3"/>
     </row>
-    <row r="609" ht="14.25" customHeight="1">
+    <row r="609" spans="9:9" ht="14.25" customHeight="1">
       <c r="I609" s="3"/>
     </row>
-    <row r="610" ht="14.25" customHeight="1">
+    <row r="610" spans="9:9" ht="14.25" customHeight="1">
       <c r="I610" s="3"/>
     </row>
-    <row r="611" ht="14.25" customHeight="1">
+    <row r="611" spans="9:9" ht="14.25" customHeight="1">
       <c r="I611" s="3"/>
     </row>
-    <row r="612" ht="14.25" customHeight="1">
+    <row r="612" spans="9:9" ht="14.25" customHeight="1">
       <c r="I612" s="3"/>
     </row>
-    <row r="613" ht="14.25" customHeight="1">
+    <row r="613" spans="9:9" ht="14.25" customHeight="1">
       <c r="I613" s="3"/>
     </row>
-    <row r="614" ht="14.25" customHeight="1">
+    <row r="614" spans="9:9" ht="14.25" customHeight="1">
       <c r="I614" s="3"/>
     </row>
-    <row r="615" ht="14.25" customHeight="1">
+    <row r="615" spans="9:9" ht="14.25" customHeight="1">
       <c r="I615" s="3"/>
     </row>
-    <row r="616" ht="14.25" customHeight="1">
+    <row r="616" spans="9:9" ht="14.25" customHeight="1">
       <c r="I616" s="3"/>
     </row>
-    <row r="617" ht="14.25" customHeight="1">
+    <row r="617" spans="9:9" ht="14.25" customHeight="1">
       <c r="I617" s="3"/>
     </row>
-    <row r="618" ht="14.25" customHeight="1">
+    <row r="618" spans="9:9" ht="14.25" customHeight="1">
       <c r="I618" s="3"/>
     </row>
-    <row r="619" ht="14.25" customHeight="1">
+    <row r="619" spans="9:9" ht="14.25" customHeight="1">
       <c r="I619" s="3"/>
     </row>
-    <row r="620" ht="14.25" customHeight="1">
+    <row r="620" spans="9:9" ht="14.25" customHeight="1">
       <c r="I620" s="3"/>
     </row>
-    <row r="621" ht="14.25" customHeight="1">
+    <row r="621" spans="9:9" ht="14.25" customHeight="1">
       <c r="I621" s="3"/>
     </row>
-    <row r="622" ht="14.25" customHeight="1">
+    <row r="622" spans="9:9" ht="14.25" customHeight="1">
       <c r="I622" s="3"/>
     </row>
-    <row r="623" ht="14.25" customHeight="1">
+    <row r="623" spans="9:9" ht="14.25" customHeight="1">
       <c r="I623" s="3"/>
     </row>
-    <row r="624" ht="14.25" customHeight="1">
+    <row r="624" spans="9:9" ht="14.25" customHeight="1">
       <c r="I624" s="3"/>
     </row>
-    <row r="625" ht="14.25" customHeight="1">
+    <row r="625" spans="9:9" ht="14.25" customHeight="1">
       <c r="I625" s="3"/>
     </row>
-    <row r="626" ht="14.25" customHeight="1">
+    <row r="626" spans="9:9" ht="14.25" customHeight="1">
       <c r="I626" s="3"/>
     </row>
-    <row r="627" ht="14.25" customHeight="1">
+    <row r="627" spans="9:9" ht="14.25" customHeight="1">
       <c r="I627" s="3"/>
     </row>
-    <row r="628" ht="14.25" customHeight="1">
+    <row r="628" spans="9:9" ht="14.25" customHeight="1">
       <c r="I628" s="3"/>
     </row>
-    <row r="629" ht="14.25" customHeight="1">
+    <row r="629" spans="9:9" ht="14.25" customHeight="1">
       <c r="I629" s="3"/>
     </row>
-    <row r="630" ht="14.25" customHeight="1">
+    <row r="630" spans="9:9" ht="14.25" customHeight="1">
       <c r="I630" s="3"/>
     </row>
-    <row r="631" ht="14.25" customHeight="1">
+    <row r="631" spans="9:9" ht="14.25" customHeight="1">
       <c r="I631" s="3"/>
     </row>
-    <row r="632" ht="14.25" customHeight="1">
+    <row r="632" spans="9:9" ht="14.25" customHeight="1">
       <c r="I632" s="3"/>
     </row>
-    <row r="633" ht="14.25" customHeight="1">
+    <row r="633" spans="9:9" ht="14.25" customHeight="1">
       <c r="I633" s="3"/>
     </row>
-    <row r="634" ht="14.25" customHeight="1">
+    <row r="634" spans="9:9" ht="14.25" customHeight="1">
       <c r="I634" s="3"/>
     </row>
-    <row r="635" ht="14.25" customHeight="1">
+    <row r="635" spans="9:9" ht="14.25" customHeight="1">
       <c r="I635" s="3"/>
     </row>
-    <row r="636" ht="14.25" customHeight="1">
+    <row r="636" spans="9:9" ht="14.25" customHeight="1">
       <c r="I636" s="3"/>
     </row>
-    <row r="637" ht="14.25" customHeight="1">
+    <row r="637" spans="9:9" ht="14.25" customHeight="1">
       <c r="I637" s="3"/>
     </row>
-    <row r="638" ht="14.25" customHeight="1">
+    <row r="638" spans="9:9" ht="14.25" customHeight="1">
       <c r="I638" s="3"/>
     </row>
-    <row r="639" ht="14.25" customHeight="1">
+    <row r="639" spans="9:9" ht="14.25" customHeight="1">
       <c r="I639" s="3"/>
     </row>
-    <row r="640" ht="14.25" customHeight="1">
+    <row r="640" spans="9:9" ht="14.25" customHeight="1">
       <c r="I640" s="3"/>
     </row>
-    <row r="641" ht="14.25" customHeight="1">
+    <row r="641" spans="9:9" ht="14.25" customHeight="1">
       <c r="I641" s="3"/>
     </row>
-    <row r="642" ht="14.25" customHeight="1">
+    <row r="642" spans="9:9" ht="14.25" customHeight="1">
       <c r="I642" s="3"/>
     </row>
-    <row r="643" ht="14.25" customHeight="1">
+    <row r="643" spans="9:9" ht="14.25" customHeight="1">
       <c r="I643" s="3"/>
     </row>
-    <row r="644" ht="14.25" customHeight="1">
+    <row r="644" spans="9:9" ht="14.25" customHeight="1">
       <c r="I644" s="3"/>
     </row>
-    <row r="645" ht="14.25" customHeight="1">
+    <row r="645" spans="9:9" ht="14.25" customHeight="1">
       <c r="I645" s="3"/>
     </row>
-    <row r="646" ht="14.25" customHeight="1">
+    <row r="646" spans="9:9" ht="14.25" customHeight="1">
       <c r="I646" s="3"/>
     </row>
-    <row r="647" ht="14.25" customHeight="1">
+    <row r="647" spans="9:9" ht="14.25" customHeight="1">
       <c r="I647" s="3"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1">
+    <row r="648" spans="9:9" ht="14.25" customHeight="1">
       <c r="I648" s="3"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1">
+    <row r="649" spans="9:9" ht="14.25" customHeight="1">
       <c r="I649" s="3"/>
     </row>
-    <row r="650" ht="14.25" customHeight="1">
+    <row r="650" spans="9:9" ht="14.25" customHeight="1">
       <c r="I650" s="3"/>
     </row>
-    <row r="651" ht="14.25" customHeight="1">
+    <row r="651" spans="9:9" ht="14.25" customHeight="1">
       <c r="I651" s="3"/>
     </row>
-    <row r="652" ht="14.25" customHeight="1">
+    <row r="652" spans="9:9" ht="14.25" customHeight="1">
       <c r="I652" s="3"/>
     </row>
-    <row r="653" ht="14.25" customHeight="1">
+    <row r="653" spans="9:9" ht="14.25" customHeight="1">
       <c r="I653" s="3"/>
     </row>
-    <row r="654" ht="14.25" customHeight="1">
+    <row r="654" spans="9:9" ht="14.25" customHeight="1">
       <c r="I654" s="3"/>
     </row>
-    <row r="655" ht="14.25" customHeight="1">
+    <row r="655" spans="9:9" ht="14.25" customHeight="1">
       <c r="I655" s="3"/>
     </row>
-    <row r="656" ht="14.25" customHeight="1">
+    <row r="656" spans="9:9" ht="14.25" customHeight="1">
       <c r="I656" s="3"/>
     </row>
-    <row r="657" ht="14.25" customHeight="1">
+    <row r="657" spans="9:9" ht="14.25" customHeight="1">
       <c r="I657" s="3"/>
     </row>
-    <row r="658" ht="14.25" customHeight="1">
+    <row r="658" spans="9:9" ht="14.25" customHeight="1">
       <c r="I658" s="3"/>
     </row>
-    <row r="659" ht="14.25" customHeight="1">
+    <row r="659" spans="9:9" ht="14.25" customHeight="1">
       <c r="I659" s="3"/>
     </row>
-    <row r="660" ht="14.25" customHeight="1">
+    <row r="660" spans="9:9" ht="14.25" customHeight="1">
       <c r="I660" s="3"/>
     </row>
-    <row r="661" ht="14.25" customHeight="1">
+    <row r="661" spans="9:9" ht="14.25" customHeight="1">
       <c r="I661" s="3"/>
     </row>
-    <row r="662" ht="14.25" customHeight="1">
+    <row r="662" spans="9:9" ht="14.25" customHeight="1">
       <c r="I662" s="3"/>
     </row>
-    <row r="663" ht="14.25" customHeight="1">
+    <row r="663" spans="9:9" ht="14.25" customHeight="1">
       <c r="I663" s="3"/>
     </row>
-    <row r="664" ht="14.25" customHeight="1">
+    <row r="664" spans="9:9" ht="14.25" customHeight="1">
       <c r="I664" s="3"/>
     </row>
-    <row r="665" ht="14.25" customHeight="1">
+    <row r="665" spans="9:9" ht="14.25" customHeight="1">
       <c r="I665" s="3"/>
     </row>
-    <row r="666" ht="14.25" customHeight="1">
+    <row r="666" spans="9:9" ht="14.25" customHeight="1">
       <c r="I666" s="3"/>
     </row>
-    <row r="667" ht="14.25" customHeight="1">
+    <row r="667" spans="9:9" ht="14.25" customHeight="1">
       <c r="I667" s="3"/>
     </row>
-    <row r="668" ht="14.25" customHeight="1">
+    <row r="668" spans="9:9" ht="14.25" customHeight="1">
       <c r="I668" s="3"/>
     </row>
-    <row r="669" ht="14.25" customHeight="1">
+    <row r="669" spans="9:9" ht="14.25" customHeight="1">
       <c r="I669" s="3"/>
     </row>
-    <row r="670" ht="14.25" customHeight="1">
+    <row r="670" spans="9:9" ht="14.25" customHeight="1">
       <c r="I670" s="3"/>
     </row>
-    <row r="671" ht="14.25" customHeight="1">
+    <row r="671" spans="9:9" ht="14.25" customHeight="1">
       <c r="I671" s="3"/>
     </row>
-    <row r="672" ht="14.25" customHeight="1">
+    <row r="672" spans="9:9" ht="14.25" customHeight="1">
       <c r="I672" s="3"/>
     </row>
-    <row r="673" ht="14.25" customHeight="1">
+    <row r="673" spans="9:9" ht="14.25" customHeight="1">
       <c r="I673" s="3"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1">
+    <row r="674" spans="9:9" ht="14.25" customHeight="1">
       <c r="I674" s="3"/>
     </row>
-    <row r="675" ht="14.25" customHeight="1">
+    <row r="675" spans="9:9" ht="14.25" customHeight="1">
       <c r="I675" s="3"/>
     </row>
-    <row r="676" ht="14.25" customHeight="1">
+    <row r="676" spans="9:9" ht="14.25" customHeight="1">
       <c r="I676" s="3"/>
     </row>
-    <row r="677" ht="14.25" customHeight="1">
+    <row r="677" spans="9:9" ht="14.25" customHeight="1">
       <c r="I677" s="3"/>
     </row>
-    <row r="678" ht="14.25" customHeight="1">
+    <row r="678" spans="9:9" ht="14.25" customHeight="1">
       <c r="I678" s="3"/>
     </row>
-    <row r="679" ht="14.25" customHeight="1">
+    <row r="679" spans="9:9" ht="14.25" customHeight="1">
       <c r="I679" s="3"/>
     </row>
-    <row r="680" ht="14.25" customHeight="1">
+    <row r="680" spans="9:9" ht="14.25" customHeight="1">
       <c r="I680" s="3"/>
     </row>
-    <row r="681" ht="14.25" customHeight="1">
+    <row r="681" spans="9:9" ht="14.25" customHeight="1">
       <c r="I681" s="3"/>
     </row>
-    <row r="682" ht="14.25" customHeight="1">
+    <row r="682" spans="9:9" ht="14.25" customHeight="1">
       <c r="I682" s="3"/>
     </row>
-    <row r="683" ht="14.25" customHeight="1">
+    <row r="683" spans="9:9" ht="14.25" customHeight="1">
       <c r="I683" s="3"/>
     </row>
-    <row r="684" ht="14.25" customHeight="1">
+    <row r="684" spans="9:9" ht="14.25" customHeight="1">
       <c r="I684" s="3"/>
     </row>
-    <row r="685" ht="14.25" customHeight="1">
+    <row r="685" spans="9:9" ht="14.25" customHeight="1">
       <c r="I685" s="3"/>
     </row>
-    <row r="686" ht="14.25" customHeight="1">
+    <row r="686" spans="9:9" ht="14.25" customHeight="1">
       <c r="I686" s="3"/>
     </row>
-    <row r="687" ht="14.25" customHeight="1">
+    <row r="687" spans="9:9" ht="14.25" customHeight="1">
       <c r="I687" s="3"/>
     </row>
-    <row r="688" ht="14.25" customHeight="1">
+    <row r="688" spans="9:9" ht="14.25" customHeight="1">
       <c r="I688" s="3"/>
     </row>
-    <row r="689" ht="14.25" customHeight="1">
+    <row r="689" spans="9:9" ht="14.25" customHeight="1">
       <c r="I689" s="3"/>
     </row>
-    <row r="690" ht="14.25" customHeight="1">
+    <row r="690" spans="9:9" ht="14.25" customHeight="1">
       <c r="I690" s="3"/>
     </row>
-    <row r="691" ht="14.25" customHeight="1">
+    <row r="691" spans="9:9" ht="14.25" customHeight="1">
       <c r="I691" s="3"/>
     </row>
-    <row r="692" ht="14.25" customHeight="1">
+    <row r="692" spans="9:9" ht="14.25" customHeight="1">
       <c r="I692" s="3"/>
     </row>
-    <row r="693" ht="14.25" customHeight="1">
+    <row r="693" spans="9:9" ht="14.25" customHeight="1">
       <c r="I693" s="3"/>
     </row>
-    <row r="694" ht="14.25" customHeight="1">
+    <row r="694" spans="9:9" ht="14.25" customHeight="1">
       <c r="I694" s="3"/>
     </row>
-    <row r="695" ht="14.25" customHeight="1">
+    <row r="695" spans="9:9" ht="14.25" customHeight="1">
       <c r="I695" s="3"/>
     </row>
-    <row r="696" ht="14.25" customHeight="1">
+    <row r="696" spans="9:9" ht="14.25" customHeight="1">
       <c r="I696" s="3"/>
     </row>
-    <row r="697" ht="14.25" customHeight="1">
+    <row r="697" spans="9:9" ht="14.25" customHeight="1">
       <c r="I697" s="3"/>
     </row>
-    <row r="698" ht="14.25" customHeight="1">
+    <row r="698" spans="9:9" ht="14.25" customHeight="1">
       <c r="I698" s="3"/>
     </row>
-    <row r="699" ht="14.25" customHeight="1">
+    <row r="699" spans="9:9" ht="14.25" customHeight="1">
       <c r="I699" s="3"/>
     </row>
-    <row r="700" ht="14.25" customHeight="1">
+    <row r="700" spans="9:9" ht="14.25" customHeight="1">
       <c r="I700" s="3"/>
     </row>
-    <row r="701" ht="14.25" customHeight="1">
+    <row r="701" spans="9:9" ht="14.25" customHeight="1">
       <c r="I701" s="3"/>
     </row>
-    <row r="702" ht="14.25" customHeight="1">
+    <row r="702" spans="9:9" ht="14.25" customHeight="1">
       <c r="I702" s="3"/>
     </row>
-    <row r="703" ht="14.25" customHeight="1">
+    <row r="703" spans="9:9" ht="14.25" customHeight="1">
       <c r="I703" s="3"/>
     </row>
-    <row r="704" ht="14.25" customHeight="1">
+    <row r="704" spans="9:9" ht="14.25" customHeight="1">
       <c r="I704" s="3"/>
     </row>
-    <row r="705" ht="14.25" customHeight="1">
+    <row r="705" spans="9:9" ht="14.25" customHeight="1">
       <c r="I705" s="3"/>
     </row>
-    <row r="706" ht="14.25" customHeight="1">
+    <row r="706" spans="9:9" ht="14.25" customHeight="1">
       <c r="I706" s="3"/>
     </row>
-    <row r="707" ht="14.25" customHeight="1">
+    <row r="707" spans="9:9" ht="14.25" customHeight="1">
       <c r="I707" s="3"/>
     </row>
-    <row r="708" ht="14.25" customHeight="1">
+    <row r="708" spans="9:9" ht="14.25" customHeight="1">
       <c r="I708" s="3"/>
     </row>
-    <row r="709" ht="14.25" customHeight="1">
+    <row r="709" spans="9:9" ht="14.25" customHeight="1">
       <c r="I709" s="3"/>
     </row>
-    <row r="710" ht="14.25" customHeight="1">
+    <row r="710" spans="9:9" ht="14.25" customHeight="1">
       <c r="I710" s="3"/>
     </row>
-    <row r="711" ht="14.25" customHeight="1">
+    <row r="711" spans="9:9" ht="14.25" customHeight="1">
       <c r="I711" s="3"/>
     </row>
-    <row r="712" ht="14.25" customHeight="1">
+    <row r="712" spans="9:9" ht="14.25" customHeight="1">
       <c r="I712" s="3"/>
     </row>
-    <row r="713" ht="14.25" customHeight="1">
+    <row r="713" spans="9:9" ht="14.25" customHeight="1">
       <c r="I713" s="3"/>
     </row>
-    <row r="714" ht="14.25" customHeight="1">
+    <row r="714" spans="9:9" ht="14.25" customHeight="1">
       <c r="I714" s="3"/>
     </row>
-    <row r="715" ht="14.25" customHeight="1">
+    <row r="715" spans="9:9" ht="14.25" customHeight="1">
       <c r="I715" s="3"/>
     </row>
-    <row r="716" ht="14.25" customHeight="1">
+    <row r="716" spans="9:9" ht="14.25" customHeight="1">
       <c r="I716" s="3"/>
     </row>
-    <row r="717" ht="14.25" customHeight="1">
+    <row r="717" spans="9:9" ht="14.25" customHeight="1">
       <c r="I717" s="3"/>
     </row>
-    <row r="718" ht="14.25" customHeight="1">
+    <row r="718" spans="9:9" ht="14.25" customHeight="1">
       <c r="I718" s="3"/>
     </row>
-    <row r="719" ht="14.25" customHeight="1">
+    <row r="719" spans="9:9" ht="14.25" customHeight="1">
       <c r="I719" s="3"/>
     </row>
-    <row r="720" ht="14.25" customHeight="1">
+    <row r="720" spans="9:9" ht="14.25" customHeight="1">
       <c r="I720" s="3"/>
     </row>
-    <row r="721" ht="14.25" customHeight="1">
+    <row r="721" spans="9:9" ht="14.25" customHeight="1">
       <c r="I721" s="3"/>
     </row>
-    <row r="722" ht="14.25" customHeight="1">
+    <row r="722" spans="9:9" ht="14.25" customHeight="1">
       <c r="I722" s="3"/>
     </row>
-    <row r="723" ht="14.25" customHeight="1">
+    <row r="723" spans="9:9" ht="14.25" customHeight="1">
       <c r="I723" s="3"/>
     </row>
-    <row r="724" ht="14.25" customHeight="1">
+    <row r="724" spans="9:9" ht="14.25" customHeight="1">
       <c r="I724" s="3"/>
     </row>
-    <row r="725" ht="14.25" customHeight="1">
+    <row r="725" spans="9:9" ht="14.25" customHeight="1">
       <c r="I725" s="3"/>
     </row>
-    <row r="726" ht="14.25" customHeight="1">
+    <row r="726" spans="9:9" ht="14.25" customHeight="1">
       <c r="I726" s="3"/>
     </row>
-    <row r="727" ht="14.25" customHeight="1">
+    <row r="727" spans="9:9" ht="14.25" customHeight="1">
       <c r="I727" s="3"/>
     </row>
-    <row r="728" ht="14.25" customHeight="1">
+    <row r="728" spans="9:9" ht="14.25" customHeight="1">
       <c r="I728" s="3"/>
     </row>
-    <row r="729" ht="14.25" customHeight="1">
+    <row r="729" spans="9:9" ht="14.25" customHeight="1">
       <c r="I729" s="3"/>
     </row>
-    <row r="730" ht="14.25" customHeight="1">
+    <row r="730" spans="9:9" ht="14.25" customHeight="1">
       <c r="I730" s="3"/>
     </row>
-    <row r="731" ht="14.25" customHeight="1">
+    <row r="731" spans="9:9" ht="14.25" customHeight="1">
       <c r="I731" s="3"/>
     </row>
-    <row r="732" ht="14.25" customHeight="1">
+    <row r="732" spans="9:9" ht="14.25" customHeight="1">
       <c r="I732" s="3"/>
     </row>
-    <row r="733" ht="14.25" customHeight="1">
+    <row r="733" spans="9:9" ht="14.25" customHeight="1">
       <c r="I733" s="3"/>
     </row>
-    <row r="734" ht="14.25" customHeight="1">
+    <row r="734" spans="9:9" ht="14.25" customHeight="1">
       <c r="I734" s="3"/>
     </row>
-    <row r="735" ht="14.25" customHeight="1">
+    <row r="735" spans="9:9" ht="14.25" customHeight="1">
       <c r="I735" s="3"/>
     </row>
-    <row r="736" ht="14.25" customHeight="1">
+    <row r="736" spans="9:9" ht="14.25" customHeight="1">
       <c r="I736" s="3"/>
     </row>
-    <row r="737" ht="14.25" customHeight="1">
+    <row r="737" spans="9:9" ht="14.25" customHeight="1">
       <c r="I737" s="3"/>
     </row>
-    <row r="738" ht="14.25" customHeight="1">
+    <row r="738" spans="9:9" ht="14.25" customHeight="1">
       <c r="I738" s="3"/>
     </row>
-    <row r="739" ht="14.25" customHeight="1">
+    <row r="739" spans="9:9" ht="14.25" customHeight="1">
       <c r="I739" s="3"/>
     </row>
-    <row r="740" ht="14.25" customHeight="1">
+    <row r="740" spans="9:9" ht="14.25" customHeight="1">
       <c r="I740" s="3"/>
     </row>
-    <row r="741" ht="14.25" customHeight="1">
+    <row r="741" spans="9:9" ht="14.25" customHeight="1">
       <c r="I741" s="3"/>
     </row>
-    <row r="742" ht="14.25" customHeight="1">
+    <row r="742" spans="9:9" ht="14.25" customHeight="1">
       <c r="I742" s="3"/>
     </row>
-    <row r="743" ht="14.25" customHeight="1">
+    <row r="743" spans="9:9" ht="14.25" customHeight="1">
       <c r="I743" s="3"/>
     </row>
-    <row r="744" ht="14.25" customHeight="1">
+    <row r="744" spans="9:9" ht="14.25" customHeight="1">
       <c r="I744" s="3"/>
     </row>
-    <row r="745" ht="14.25" customHeight="1">
+    <row r="745" spans="9:9" ht="14.25" customHeight="1">
       <c r="I745" s="3"/>
     </row>
-    <row r="746" ht="14.25" customHeight="1">
+    <row r="746" spans="9:9" ht="14.25" customHeight="1">
       <c r="I746" s="3"/>
     </row>
-    <row r="747" ht="14.25" customHeight="1">
+    <row r="747" spans="9:9" ht="14.25" customHeight="1">
       <c r="I747" s="3"/>
     </row>
-    <row r="748" ht="14.25" customHeight="1">
+    <row r="748" spans="9:9" ht="14.25" customHeight="1">
       <c r="I748" s="3"/>
     </row>
-    <row r="749" ht="14.25" customHeight="1">
+    <row r="749" spans="9:9" ht="14.25" customHeight="1">
       <c r="I749" s="3"/>
     </row>
-    <row r="750" ht="14.25" customHeight="1">
+    <row r="750" spans="9:9" ht="14.25" customHeight="1">
       <c r="I750" s="3"/>
     </row>
-    <row r="751" ht="14.25" customHeight="1">
+    <row r="751" spans="9:9" ht="14.25" customHeight="1">
       <c r="I751" s="3"/>
     </row>
-    <row r="752" ht="14.25" customHeight="1">
+    <row r="752" spans="9:9" ht="14.25" customHeight="1">
       <c r="I752" s="3"/>
     </row>
-    <row r="753" ht="14.25" customHeight="1">
+    <row r="753" spans="9:9" ht="14.25" customHeight="1">
       <c r="I753" s="3"/>
     </row>
-    <row r="754" ht="14.25" customHeight="1">
+    <row r="754" spans="9:9" ht="14.25" customHeight="1">
       <c r="I754" s="3"/>
     </row>
-    <row r="755" ht="14.25" customHeight="1">
+    <row r="755" spans="9:9" ht="14.25" customHeight="1">
       <c r="I755" s="3"/>
     </row>
-    <row r="756" ht="14.25" customHeight="1">
+    <row r="756" spans="9:9" ht="14.25" customHeight="1">
       <c r="I756" s="3"/>
     </row>
-    <row r="757" ht="14.25" customHeight="1">
+    <row r="757" spans="9:9" ht="14.25" customHeight="1">
       <c r="I757" s="3"/>
     </row>
-    <row r="758" ht="14.25" customHeight="1">
+    <row r="758" spans="9:9" ht="14.25" customHeight="1">
       <c r="I758" s="3"/>
     </row>
-    <row r="759" ht="14.25" customHeight="1">
+    <row r="759" spans="9:9" ht="14.25" customHeight="1">
       <c r="I759" s="3"/>
     </row>
-    <row r="760" ht="14.25" customHeight="1">
+    <row r="760" spans="9:9" ht="14.25" customHeight="1">
       <c r="I760" s="3"/>
     </row>
-    <row r="761" ht="14.25" customHeight="1">
+    <row r="761" spans="9:9" ht="14.25" customHeight="1">
       <c r="I761" s="3"/>
     </row>
-    <row r="762" ht="14.25" customHeight="1">
+    <row r="762" spans="9:9" ht="14.25" customHeight="1">
       <c r="I762" s="3"/>
     </row>
-    <row r="763" ht="14.25" customHeight="1">
+    <row r="763" spans="9:9" ht="14.25" customHeight="1">
       <c r="I763" s="3"/>
     </row>
-    <row r="764" ht="14.25" customHeight="1">
+    <row r="764" spans="9:9" ht="14.25" customHeight="1">
       <c r="I764" s="3"/>
     </row>
-    <row r="765" ht="14.25" customHeight="1">
+    <row r="765" spans="9:9" ht="14.25" customHeight="1">
       <c r="I765" s="3"/>
     </row>
-    <row r="766" ht="14.25" customHeight="1">
+    <row r="766" spans="9:9" ht="14.25" customHeight="1">
       <c r="I766" s="3"/>
     </row>
-    <row r="767" ht="14.25" customHeight="1">
+    <row r="767" spans="9:9" ht="14.25" customHeight="1">
       <c r="I767" s="3"/>
     </row>
-    <row r="768" ht="14.25" customHeight="1">
+    <row r="768" spans="9:9" ht="14.25" customHeight="1">
       <c r="I768" s="3"/>
     </row>
-    <row r="769" ht="14.25" customHeight="1">
+    <row r="769" spans="9:9" ht="14.25" customHeight="1">
       <c r="I769" s="3"/>
     </row>
-    <row r="770" ht="14.25" customHeight="1">
+    <row r="770" spans="9:9" ht="14.25" customHeight="1">
       <c r="I770" s="3"/>
     </row>
-    <row r="771" ht="14.25" customHeight="1">
+    <row r="771" spans="9:9" ht="14.25" customHeight="1">
       <c r="I771" s="3"/>
     </row>
-    <row r="772" ht="14.25" customHeight="1">
+    <row r="772" spans="9:9" ht="14.25" customHeight="1">
       <c r="I772" s="3"/>
     </row>
-    <row r="773" ht="14.25" customHeight="1">
+    <row r="773" spans="9:9" ht="14.25" customHeight="1">
       <c r="I773" s="3"/>
     </row>
-    <row r="774" ht="14.25" customHeight="1">
+    <row r="774" spans="9:9" ht="14.25" customHeight="1">
       <c r="I774" s="3"/>
     </row>
-    <row r="775" ht="14.25" customHeight="1">
+    <row r="775" spans="9:9" ht="14.25" customHeight="1">
       <c r="I775" s="3"/>
     </row>
-    <row r="776" ht="14.25" customHeight="1">
+    <row r="776" spans="9:9" ht="14.25" customHeight="1">
       <c r="I776" s="3"/>
     </row>
-    <row r="777" ht="14.25" customHeight="1">
+    <row r="777" spans="9:9" ht="14.25" customHeight="1">
       <c r="I777" s="3"/>
     </row>
-    <row r="778" ht="14.25" customHeight="1">
+    <row r="778" spans="9:9" ht="14.25" customHeight="1">
       <c r="I778" s="3"/>
     </row>
-    <row r="779" ht="14.25" customHeight="1">
+    <row r="779" spans="9:9" ht="14.25" customHeight="1">
       <c r="I779" s="3"/>
     </row>
-    <row r="780" ht="14.25" customHeight="1">
+    <row r="780" spans="9:9" ht="14.25" customHeight="1">
       <c r="I780" s="3"/>
     </row>
-    <row r="781" ht="14.25" customHeight="1">
+    <row r="781" spans="9:9" ht="14.25" customHeight="1">
       <c r="I781" s="3"/>
     </row>
-    <row r="782" ht="14.25" customHeight="1">
+    <row r="782" spans="9:9" ht="14.25" customHeight="1">
       <c r="I782" s="3"/>
     </row>
-    <row r="783" ht="14.25" customHeight="1">
+    <row r="783" spans="9:9" ht="14.25" customHeight="1">
       <c r="I783" s="3"/>
     </row>
-    <row r="784" ht="14.25" customHeight="1">
+    <row r="784" spans="9:9" ht="14.25" customHeight="1">
       <c r="I784" s="3"/>
     </row>
-    <row r="785" ht="14.25" customHeight="1">
+    <row r="785" spans="9:9" ht="14.25" customHeight="1">
       <c r="I785" s="3"/>
     </row>
-    <row r="786" ht="14.25" customHeight="1">
+    <row r="786" spans="9:9" ht="14.25" customHeight="1">
       <c r="I786" s="3"/>
     </row>
-    <row r="787" ht="14.25" customHeight="1">
+    <row r="787" spans="9:9" ht="14.25" customHeight="1">
       <c r="I787" s="3"/>
     </row>
-    <row r="788" ht="14.25" customHeight="1">
+    <row r="788" spans="9:9" ht="14.25" customHeight="1">
       <c r="I788" s="3"/>
     </row>
-    <row r="789" ht="14.25" customHeight="1">
+    <row r="789" spans="9:9" ht="14.25" customHeight="1">
       <c r="I789" s="3"/>
     </row>
-    <row r="790" ht="14.25" customHeight="1">
+    <row r="790" spans="9:9" ht="14.25" customHeight="1">
       <c r="I790" s="3"/>
     </row>
-    <row r="791" ht="14.25" customHeight="1">
+    <row r="791" spans="9:9" ht="14.25" customHeight="1">
       <c r="I791" s="3"/>
     </row>
-    <row r="792" ht="14.25" customHeight="1">
+    <row r="792" spans="9:9" ht="14.25" customHeight="1">
       <c r="I792" s="3"/>
     </row>
-    <row r="793" ht="14.25" customHeight="1">
+    <row r="793" spans="9:9" ht="14.25" customHeight="1">
       <c r="I793" s="3"/>
     </row>
-    <row r="794" ht="14.25" customHeight="1">
+    <row r="794" spans="9:9" ht="14.25" customHeight="1">
       <c r="I794" s="3"/>
     </row>
-    <row r="795" ht="14.25" customHeight="1">
+    <row r="795" spans="9:9" ht="14.25" customHeight="1">
       <c r="I795" s="3"/>
     </row>
-    <row r="796" ht="14.25" customHeight="1">
+    <row r="796" spans="9:9" ht="14.25" customHeight="1">
       <c r="I796" s="3"/>
     </row>
-    <row r="797" ht="14.25" customHeight="1">
+    <row r="797" spans="9:9" ht="14.25" customHeight="1">
       <c r="I797" s="3"/>
     </row>
-    <row r="798" ht="14.25" customHeight="1">
+    <row r="798" spans="9:9" ht="14.25" customHeight="1">
       <c r="I798" s="3"/>
     </row>
-    <row r="799" ht="14.25" customHeight="1">
+    <row r="799" spans="9:9" ht="14.25" customHeight="1">
       <c r="I799" s="3"/>
     </row>
-    <row r="800" ht="14.25" customHeight="1">
+    <row r="800" spans="9:9" ht="14.25" customHeight="1">
       <c r="I800" s="3"/>
     </row>
-    <row r="801" ht="14.25" customHeight="1">
+    <row r="801" spans="9:9" ht="14.25" customHeight="1">
       <c r="I801" s="3"/>
     </row>
-    <row r="802" ht="14.25" customHeight="1">
+    <row r="802" spans="9:9" ht="14.25" customHeight="1">
       <c r="I802" s="3"/>
     </row>
-    <row r="803" ht="14.25" customHeight="1">
+    <row r="803" spans="9:9" ht="14.25" customHeight="1">
       <c r="I803" s="3"/>
     </row>
-    <row r="804" ht="14.25" customHeight="1">
+    <row r="804" spans="9:9" ht="14.25" customHeight="1">
       <c r="I804" s="3"/>
     </row>
-    <row r="805" ht="14.25" customHeight="1">
+    <row r="805" spans="9:9" ht="14.25" customHeight="1">
       <c r="I805" s="3"/>
     </row>
-    <row r="806" ht="14.25" customHeight="1">
+    <row r="806" spans="9:9" ht="14.25" customHeight="1">
       <c r="I806" s="3"/>
     </row>
-    <row r="807" ht="14.25" customHeight="1">
+    <row r="807" spans="9:9" ht="14.25" customHeight="1">
       <c r="I807" s="3"/>
     </row>
-    <row r="808" ht="14.25" customHeight="1">
+    <row r="808" spans="9:9" ht="14.25" customHeight="1">
       <c r="I808" s="3"/>
     </row>
-    <row r="809" ht="14.25" customHeight="1">
+    <row r="809" spans="9:9" ht="14.25" customHeight="1">
       <c r="I809" s="3"/>
     </row>
-    <row r="810" ht="14.25" customHeight="1">
+    <row r="810" spans="9:9" ht="14.25" customHeight="1">
       <c r="I810" s="3"/>
     </row>
-    <row r="811" ht="14.25" customHeight="1">
+    <row r="811" spans="9:9" ht="14.25" customHeight="1">
       <c r="I811" s="3"/>
     </row>
-    <row r="812" ht="14.25" customHeight="1">
+    <row r="812" spans="9:9" ht="14.25" customHeight="1">
       <c r="I812" s="3"/>
     </row>
-    <row r="813" ht="14.25" customHeight="1">
+    <row r="813" spans="9:9" ht="14.25" customHeight="1">
       <c r="I813" s="3"/>
     </row>
-    <row r="814" ht="14.25" customHeight="1">
+    <row r="814" spans="9:9" ht="14.25" customHeight="1">
       <c r="I814" s="3"/>
     </row>
-    <row r="815" ht="14.25" customHeight="1">
+    <row r="815" spans="9:9" ht="14.25" customHeight="1">
       <c r="I815" s="3"/>
     </row>
-    <row r="816" ht="14.25" customHeight="1">
+    <row r="816" spans="9:9" ht="14.25" customHeight="1">
       <c r="I816" s="3"/>
     </row>
-    <row r="817" ht="14.25" customHeight="1">
+    <row r="817" spans="9:9" ht="14.25" customHeight="1">
       <c r="I817" s="3"/>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
+    <row r="818" spans="9:9" ht="14.25" customHeight="1">
       <c r="I818" s="3"/>
     </row>
-    <row r="819" ht="14.25" customHeight="1">
+    <row r="819" spans="9:9" ht="14.25" customHeight="1">
       <c r="I819" s="3"/>
     </row>
-    <row r="820" ht="14.25" customHeight="1">
+    <row r="820" spans="9:9" ht="14.25" customHeight="1">
       <c r="I820" s="3"/>
     </row>
-    <row r="821" ht="14.25" customHeight="1">
+    <row r="821" spans="9:9" ht="14.25" customHeight="1">
       <c r="I821" s="3"/>
     </row>
-    <row r="822" ht="14.25" customHeight="1">
+    <row r="822" spans="9:9" ht="14.25" customHeight="1">
       <c r="I822" s="3"/>
     </row>
-    <row r="823" ht="14.25" customHeight="1">
+    <row r="823" spans="9:9" ht="14.25" customHeight="1">
       <c r="I823" s="3"/>
     </row>
-    <row r="824" ht="14.25" customHeight="1">
+    <row r="824" spans="9:9" ht="14.25" customHeight="1">
       <c r="I824" s="3"/>
     </row>
-    <row r="825" ht="14.25" customHeight="1">
+    <row r="825" spans="9:9" ht="14.25" customHeight="1">
       <c r="I825" s="3"/>
     </row>
-    <row r="826" ht="14.25" customHeight="1">
+    <row r="826" spans="9:9" ht="14.25" customHeight="1">
       <c r="I826" s="3"/>
     </row>
-    <row r="827" ht="14.25" customHeight="1">
+    <row r="827" spans="9:9" ht="14.25" customHeight="1">
       <c r="I827" s="3"/>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
+    <row r="828" spans="9:9" ht="14.25" customHeight="1">
       <c r="I828" s="3"/>
     </row>
-    <row r="829" ht="14.25" customHeight="1">
+    <row r="829" spans="9:9" ht="14.25" customHeight="1">
       <c r="I829" s="3"/>
     </row>
-    <row r="830" ht="14.25" customHeight="1">
+    <row r="830" spans="9:9" ht="14.25" customHeight="1">
       <c r="I830" s="3"/>
     </row>
-    <row r="831" ht="14.25" customHeight="1">
+    <row r="831" spans="9:9" ht="14.25" customHeight="1">
       <c r="I831" s="3"/>
     </row>
-    <row r="832" ht="14.25" customHeight="1">
+    <row r="832" spans="9:9" ht="14.25" customHeight="1">
       <c r="I832" s="3"/>
     </row>
-    <row r="833" ht="14.25" customHeight="1">
+    <row r="833" spans="9:9" ht="14.25" customHeight="1">
       <c r="I833" s="3"/>
     </row>
-    <row r="834" ht="14.25" customHeight="1">
+    <row r="834" spans="9:9" ht="14.25" customHeight="1">
       <c r="I834" s="3"/>
     </row>
-    <row r="835" ht="14.25" customHeight="1">
+    <row r="835" spans="9:9" ht="14.25" customHeight="1">
       <c r="I835" s="3"/>
     </row>
-    <row r="836" ht="14.25" customHeight="1">
+    <row r="836" spans="9:9" ht="14.25" customHeight="1">
       <c r="I836" s="3"/>
     </row>
-    <row r="837" ht="14.25" customHeight="1">
+    <row r="837" spans="9:9" ht="14.25" customHeight="1">
       <c r="I837" s="3"/>
     </row>
-    <row r="838" ht="14.25" customHeight="1">
+    <row r="838" spans="9:9" ht="14.25" customHeight="1">
       <c r="I838" s="3"/>
     </row>
-    <row r="839" ht="14.25" customHeight="1">
+    <row r="839" spans="9:9" ht="14.25" customHeight="1">
       <c r="I839" s="3"/>
     </row>
-    <row r="840" ht="14.25" customHeight="1">
+    <row r="840" spans="9:9" ht="14.25" customHeight="1">
       <c r="I840" s="3"/>
     </row>
-    <row r="841" ht="14.25" customHeight="1">
+    <row r="841" spans="9:9" ht="14.25" customHeight="1">
       <c r="I841" s="3"/>
     </row>
-    <row r="842" ht="14.25" customHeight="1">
+    <row r="842" spans="9:9" ht="14.25" customHeight="1">
       <c r="I842" s="3"/>
     </row>
-    <row r="843" ht="14.25" customHeight="1">
+    <row r="843" spans="9:9" ht="14.25" customHeight="1">
       <c r="I843" s="3"/>
     </row>
-    <row r="844" ht="14.25" customHeight="1">
+    <row r="844" spans="9:9" ht="14.25" customHeight="1">
       <c r="I844" s="3"/>
     </row>
-    <row r="845" ht="14.25" customHeight="1">
+    <row r="845" spans="9:9" ht="14.25" customHeight="1">
       <c r="I845" s="3"/>
     </row>
-    <row r="846" ht="14.25" customHeight="1">
+    <row r="846" spans="9:9" ht="14.25" customHeight="1">
       <c r="I846" s="3"/>
     </row>
-    <row r="847" ht="14.25" customHeight="1">
+    <row r="847" spans="9:9" ht="14.25" customHeight="1">
       <c r="I847" s="3"/>
     </row>
-    <row r="848" ht="14.25" customHeight="1">
+    <row r="848" spans="9:9" ht="14.25" customHeight="1">
       <c r="I848" s="3"/>
     </row>
-    <row r="849" ht="14.25" customHeight="1">
+    <row r="849" spans="9:9" ht="14.25" customHeight="1">
       <c r="I849" s="3"/>
     </row>
-    <row r="850" ht="14.25" customHeight="1">
+    <row r="850" spans="9:9" ht="14.25" customHeight="1">
       <c r="I850" s="3"/>
     </row>
-    <row r="851" ht="14.25" customHeight="1">
+    <row r="851" spans="9:9" ht="14.25" customHeight="1">
       <c r="I851" s="3"/>
     </row>
-    <row r="852" ht="14.25" customHeight="1">
+    <row r="852" spans="9:9" ht="14.25" customHeight="1">
       <c r="I852" s="3"/>
     </row>
-    <row r="853" ht="14.25" customHeight="1">
+    <row r="853" spans="9:9" ht="14.25" customHeight="1">
       <c r="I853" s="3"/>
     </row>
-    <row r="854" ht="14.25" customHeight="1">
+    <row r="854" spans="9:9" ht="14.25" customHeight="1">
       <c r="I854" s="3"/>
     </row>
-    <row r="855" ht="14.25" customHeight="1">
+    <row r="855" spans="9:9" ht="14.25" customHeight="1">
       <c r="I855" s="3"/>
     </row>
-    <row r="856" ht="14.25" customHeight="1">
+    <row r="856" spans="9:9" ht="14.25" customHeight="1">
       <c r="I856" s="3"/>
     </row>
-    <row r="857" ht="14.25" customHeight="1">
+    <row r="857" spans="9:9" ht="14.25" customHeight="1">
       <c r="I857" s="3"/>
     </row>
-    <row r="858" ht="14.25" customHeight="1">
+    <row r="858" spans="9:9" ht="14.25" customHeight="1">
       <c r="I858" s="3"/>
     </row>
-    <row r="859" ht="14.25" customHeight="1">
+    <row r="859" spans="9:9" ht="14.25" customHeight="1">
       <c r="I859" s="3"/>
     </row>
-    <row r="860" ht="14.25" customHeight="1">
+    <row r="860" spans="9:9" ht="14.25" customHeight="1">
       <c r="I860" s="3"/>
     </row>
-    <row r="861" ht="14.25" customHeight="1">
+    <row r="861" spans="9:9" ht="14.25" customHeight="1">
       <c r="I861" s="3"/>
     </row>
-    <row r="862" ht="14.25" customHeight="1">
+    <row r="862" spans="9:9" ht="14.25" customHeight="1">
       <c r="I862" s="3"/>
     </row>
-    <row r="863" ht="14.25" customHeight="1">
+    <row r="863" spans="9:9" ht="14.25" customHeight="1">
       <c r="I863" s="3"/>
     </row>
-    <row r="864" ht="14.25" customHeight="1">
+    <row r="864" spans="9:9" ht="14.25" customHeight="1">
       <c r="I864" s="3"/>
     </row>
-    <row r="865" ht="14.25" customHeight="1">
+    <row r="865" spans="9:9" ht="14.25" customHeight="1">
       <c r="I865" s="3"/>
     </row>
-    <row r="866" ht="14.25" customHeight="1">
+    <row r="866" spans="9:9" ht="14.25" customHeight="1">
       <c r="I866" s="3"/>
     </row>
-    <row r="867" ht="14.25" customHeight="1">
+    <row r="867" spans="9:9" ht="14.25" customHeight="1">
       <c r="I867" s="3"/>
     </row>
-    <row r="868" ht="14.25" customHeight="1">
+    <row r="868" spans="9:9" ht="14.25" customHeight="1">
       <c r="I868" s="3"/>
     </row>
-    <row r="869" ht="14.25" customHeight="1">
+    <row r="869" spans="9:9" ht="14.25" customHeight="1">
       <c r="I869" s="3"/>
     </row>
-    <row r="870" ht="14.25" customHeight="1">
+    <row r="870" spans="9:9" ht="14.25" customHeight="1">
       <c r="I870" s="3"/>
     </row>
-    <row r="871" ht="14.25" customHeight="1">
+    <row r="871" spans="9:9" ht="14.25" customHeight="1">
       <c r="I871" s="3"/>
     </row>
-    <row r="872" ht="14.25" customHeight="1">
+    <row r="872" spans="9:9" ht="14.25" customHeight="1">
       <c r="I872" s="3"/>
     </row>
-    <row r="873" ht="14.25" customHeight="1">
+    <row r="873" spans="9:9" ht="14.25" customHeight="1">
       <c r="I873" s="3"/>
     </row>
-    <row r="874" ht="14.25" customHeight="1">
+    <row r="874" spans="9:9" ht="14.25" customHeight="1">
       <c r="I874" s="3"/>
     </row>
-    <row r="875" ht="14.25" customHeight="1">
+    <row r="875" spans="9:9" ht="14.25" customHeight="1">
       <c r="I875" s="3"/>
     </row>
-    <row r="876" ht="14.25" customHeight="1">
+    <row r="876" spans="9:9" ht="14.25" customHeight="1">
       <c r="I876" s="3"/>
     </row>
-    <row r="877" ht="14.25" customHeight="1">
+    <row r="877" spans="9:9" ht="14.25" customHeight="1">
       <c r="I877" s="3"/>
     </row>
-    <row r="878" ht="14.25" customHeight="1">
+    <row r="878" spans="9:9" ht="14.25" customHeight="1">
       <c r="I878" s="3"/>
     </row>
-    <row r="879" ht="14.25" customHeight="1">
+    <row r="879" spans="9:9" ht="14.25" customHeight="1">
       <c r="I879" s="3"/>
     </row>
-    <row r="880" ht="14.25" customHeight="1">
+    <row r="880" spans="9:9" ht="14.25" customHeight="1">
       <c r="I880" s="3"/>
     </row>
-    <row r="881" ht="14.25" customHeight="1">
+    <row r="881" spans="9:9" ht="14.25" customHeight="1">
       <c r="I881" s="3"/>
     </row>
-    <row r="882" ht="14.25" customHeight="1">
+    <row r="882" spans="9:9" ht="14.25" customHeight="1">
       <c r="I882" s="3"/>
     </row>
-    <row r="883" ht="14.25" customHeight="1">
+    <row r="883" spans="9:9" ht="14.25" customHeight="1">
       <c r="I883" s="3"/>
     </row>
-    <row r="884" ht="14.25" customHeight="1">
+    <row r="884" spans="9:9" ht="14.25" customHeight="1">
       <c r="I884" s="3"/>
     </row>
-    <row r="885" ht="14.25" customHeight="1">
+    <row r="885" spans="9:9" ht="14.25" customHeight="1">
       <c r="I885" s="3"/>
     </row>
-    <row r="886" ht="14.25" customHeight="1">
+    <row r="886" spans="9:9" ht="14.25" customHeight="1">
       <c r="I886" s="3"/>
     </row>
-    <row r="887" ht="14.25" customHeight="1">
+    <row r="887" spans="9:9" ht="14.25" customHeight="1">
       <c r="I887" s="3"/>
     </row>
-    <row r="888" ht="14.25" customHeight="1">
+    <row r="888" spans="9:9" ht="14.25" customHeight="1">
       <c r="I888" s="3"/>
     </row>
-    <row r="889" ht="14.25" customHeight="1">
+    <row r="889" spans="9:9" ht="14.25" customHeight="1">
       <c r="I889" s="3"/>
     </row>
-    <row r="890" ht="14.25" customHeight="1">
+    <row r="890" spans="9:9" ht="14.25" customHeight="1">
       <c r="I890" s="3"/>
     </row>
-    <row r="891" ht="14.25" customHeight="1">
+    <row r="891" spans="9:9" ht="14.25" customHeight="1">
       <c r="I891" s="3"/>
     </row>
-    <row r="892" ht="14.25" customHeight="1">
+    <row r="892" spans="9:9" ht="14.25" customHeight="1">
       <c r="I892" s="3"/>
     </row>
-    <row r="893" ht="14.25" customHeight="1">
+    <row r="893" spans="9:9" ht="14.25" customHeight="1">
       <c r="I893" s="3"/>
     </row>
-    <row r="894" ht="14.25" customHeight="1">
+    <row r="894" spans="9:9" ht="14.25" customHeight="1">
       <c r="I894" s="3"/>
     </row>
-    <row r="895" ht="14.25" customHeight="1">
+    <row r="895" spans="9:9" ht="14.25" customHeight="1">
       <c r="I895" s="3"/>
     </row>
-    <row r="896" ht="14.25" customHeight="1">
+    <row r="896" spans="9:9" ht="14.25" customHeight="1">
       <c r="I896" s="3"/>
     </row>
-    <row r="897" ht="14.25" customHeight="1">
+    <row r="897" spans="9:9" ht="14.25" customHeight="1">
       <c r="I897" s="3"/>
     </row>
-    <row r="898" ht="14.25" customHeight="1">
+    <row r="898" spans="9:9" ht="14.25" customHeight="1">
       <c r="I898" s="3"/>
     </row>
-    <row r="899" ht="14.25" customHeight="1">
+    <row r="899" spans="9:9" ht="14.25" customHeight="1">
       <c r="I899" s="3"/>
     </row>
-    <row r="900" ht="14.25" customHeight="1">
+    <row r="900" spans="9:9" ht="14.25" customHeight="1">
       <c r="I900" s="3"/>
     </row>
-    <row r="901" ht="14.25" customHeight="1">
+    <row r="901" spans="9:9" ht="14.25" customHeight="1">
       <c r="I901" s="3"/>
     </row>
-    <row r="902" ht="14.25" customHeight="1">
+    <row r="902" spans="9:9" ht="14.25" customHeight="1">
       <c r="I902" s="3"/>
     </row>
-    <row r="903" ht="14.25" customHeight="1">
+    <row r="903" spans="9:9" ht="14.25" customHeight="1">
       <c r="I903" s="3"/>
     </row>
-    <row r="904" ht="14.25" customHeight="1">
+    <row r="904" spans="9:9" ht="14.25" customHeight="1">
       <c r="I904" s="3"/>
     </row>
-    <row r="905" ht="14.25" customHeight="1">
+    <row r="905" spans="9:9" ht="14.25" customHeight="1">
       <c r="I905" s="3"/>
     </row>
-    <row r="906" ht="14.25" customHeight="1">
+    <row r="906" spans="9:9" ht="14.25" customHeight="1">
       <c r="I906" s="3"/>
     </row>
-    <row r="907" ht="14.25" customHeight="1">
+    <row r="907" spans="9:9" ht="14.25" customHeight="1">
       <c r="I907" s="3"/>
     </row>
-    <row r="908" ht="14.25" customHeight="1">
+    <row r="908" spans="9:9" ht="14.25" customHeight="1">
       <c r="I908" s="3"/>
     </row>
-    <row r="909" ht="14.25" customHeight="1">
+    <row r="909" spans="9:9" ht="14.25" customHeight="1">
       <c r="I909" s="3"/>
     </row>
-    <row r="910" ht="14.25" customHeight="1">
+    <row r="910" spans="9:9" ht="14.25" customHeight="1">
       <c r="I910" s="3"/>
     </row>
-    <row r="911" ht="14.25" customHeight="1">
+    <row r="911" spans="9:9" ht="14.25" customHeight="1">
       <c r="I911" s="3"/>
     </row>
-    <row r="912" ht="14.25" customHeight="1">
+    <row r="912" spans="9:9" ht="14.25" customHeight="1">
       <c r="I912" s="3"/>
     </row>
-    <row r="913" ht="14.25" customHeight="1">
+    <row r="913" spans="9:9" ht="14.25" customHeight="1">
       <c r="I913" s="3"/>
     </row>
-    <row r="914" ht="14.25" customHeight="1">
+    <row r="914" spans="9:9" ht="14.25" customHeight="1">
       <c r="I914" s="3"/>
     </row>
-    <row r="915" ht="14.25" customHeight="1">
+    <row r="915" spans="9:9" ht="14.25" customHeight="1">
       <c r="I915" s="3"/>
     </row>
-    <row r="916" ht="14.25" customHeight="1">
+    <row r="916" spans="9:9" ht="14.25" customHeight="1">
       <c r="I916" s="3"/>
     </row>
-    <row r="917" ht="14.25" customHeight="1">
+    <row r="917" spans="9:9" ht="14.25" customHeight="1">
       <c r="I917" s="3"/>
     </row>
-    <row r="918" ht="14.25" customHeight="1">
+    <row r="918" spans="9:9" ht="14.25" customHeight="1">
       <c r="I918" s="3"/>
     </row>
-    <row r="919" ht="14.25" customHeight="1">
+    <row r="919" spans="9:9" ht="14.25" customHeight="1">
       <c r="I919" s="3"/>
     </row>
-    <row r="920" ht="14.25" customHeight="1">
+    <row r="920" spans="9:9" ht="14.25" customHeight="1">
       <c r="I920" s="3"/>
     </row>
-    <row r="921" ht="14.25" customHeight="1">
+    <row r="921" spans="9:9" ht="14.25" customHeight="1">
       <c r="I921" s="3"/>
     </row>
-    <row r="922" ht="14.25" customHeight="1">
+    <row r="922" spans="9:9" ht="14.25" customHeight="1">
       <c r="I922" s="3"/>
     </row>
-    <row r="923" ht="14.25" customHeight="1">
+    <row r="923" spans="9:9" ht="14.25" customHeight="1">
       <c r="I923" s="3"/>
     </row>
-    <row r="924" ht="14.25" customHeight="1">
+    <row r="924" spans="9:9" ht="14.25" customHeight="1">
       <c r="I924" s="3"/>
     </row>
-    <row r="925" ht="14.25" customHeight="1">
+    <row r="925" spans="9:9" ht="14.25" customHeight="1">
       <c r="I925" s="3"/>
     </row>
-    <row r="926" ht="14.25" customHeight="1">
+    <row r="926" spans="9:9" ht="14.25" customHeight="1">
       <c r="I926" s="3"/>
     </row>
-    <row r="927" ht="14.25" customHeight="1">
+    <row r="927" spans="9:9" ht="14.25" customHeight="1">
       <c r="I927" s="3"/>
     </row>
-    <row r="928" ht="14.25" customHeight="1">
+    <row r="928" spans="9:9" ht="14.25" customHeight="1">
       <c r="I928" s="3"/>
     </row>
-    <row r="929" ht="14.25" customHeight="1">
+    <row r="929" spans="9:9" ht="14.25" customHeight="1">
       <c r="I929" s="3"/>
     </row>
-    <row r="930" ht="14.25" customHeight="1">
+    <row r="930" spans="9:9" ht="14.25" customHeight="1">
       <c r="I930" s="3"/>
     </row>
-    <row r="931" ht="14.25" customHeight="1">
+    <row r="931" spans="9:9" ht="14.25" customHeight="1">
       <c r="I931" s="3"/>
     </row>
-    <row r="932" ht="14.25" customHeight="1">
+    <row r="932" spans="9:9" ht="14.25" customHeight="1">
       <c r="I932" s="3"/>
     </row>
-    <row r="933" ht="14.25" customHeight="1">
+    <row r="933" spans="9:9" ht="14.25" customHeight="1">
       <c r="I933" s="3"/>
     </row>
-    <row r="934" ht="14.25" customHeight="1">
+    <row r="934" spans="9:9" ht="14.25" customHeight="1">
       <c r="I934" s="3"/>
     </row>
-    <row r="935" ht="14.25" customHeight="1">
+    <row r="935" spans="9:9" ht="14.25" customHeight="1">
       <c r="I935" s="3"/>
     </row>
-    <row r="936" ht="14.25" customHeight="1">
+    <row r="936" spans="9:9" ht="14.25" customHeight="1">
       <c r="I936" s="3"/>
     </row>
-    <row r="937" ht="14.25" customHeight="1">
+    <row r="937" spans="9:9" ht="14.25" customHeight="1">
       <c r="I937" s="3"/>
     </row>
-    <row r="938" ht="14.25" customHeight="1">
+    <row r="938" spans="9:9" ht="14.25" customHeight="1">
       <c r="I938" s="3"/>
     </row>
-    <row r="939" ht="14.25" customHeight="1">
+    <row r="939" spans="9:9" ht="14.25" customHeight="1">
       <c r="I939" s="3"/>
     </row>
-    <row r="940" ht="14.25" customHeight="1">
+    <row r="940" spans="9:9" ht="14.25" customHeight="1">
       <c r="I940" s="3"/>
     </row>
-    <row r="941" ht="14.25" customHeight="1">
+    <row r="941" spans="9:9" ht="14.25" customHeight="1">
       <c r="I941" s="3"/>
     </row>
-    <row r="942" ht="14.25" customHeight="1">
+    <row r="942" spans="9:9" ht="14.25" customHeight="1">
       <c r="I942" s="3"/>
     </row>
-    <row r="943" ht="14.25" customHeight="1">
+    <row r="943" spans="9:9" ht="14.25" customHeight="1">
       <c r="I943" s="3"/>
     </row>
-    <row r="944" ht="14.25" customHeight="1">
+    <row r="944" spans="9:9" ht="14.25" customHeight="1">
       <c r="I944" s="3"/>
     </row>
-    <row r="945" ht="14.25" customHeight="1">
+    <row r="945" spans="9:9" ht="14.25" customHeight="1">
       <c r="I945" s="3"/>
     </row>
-    <row r="946" ht="14.25" customHeight="1">
+    <row r="946" spans="9:9" ht="14.25" customHeight="1">
       <c r="I946" s="3"/>
     </row>
-    <row r="947" ht="14.25" customHeight="1">
+    <row r="947" spans="9:9" ht="14.25" customHeight="1">
       <c r="I947" s="3"/>
     </row>
-    <row r="948" ht="14.25" customHeight="1">
+    <row r="948" spans="9:9" ht="14.25" customHeight="1">
       <c r="I948" s="3"/>
     </row>
-    <row r="949" ht="14.25" customHeight="1">
+    <row r="949" spans="9:9" ht="14.25" customHeight="1">
       <c r="I949" s="3"/>
     </row>
-    <row r="950" ht="14.25" customHeight="1">
+    <row r="950" spans="9:9" ht="14.25" customHeight="1">
       <c r="I950" s="3"/>
     </row>
-    <row r="951" ht="14.25" customHeight="1">
+    <row r="951" spans="9:9" ht="14.25" customHeight="1">
       <c r="I951" s="3"/>
     </row>
-    <row r="952" ht="14.25" customHeight="1">
+    <row r="952" spans="9:9" ht="14.25" customHeight="1">
       <c r="I952" s="3"/>
     </row>
-    <row r="953" ht="14.25" customHeight="1">
+    <row r="953" spans="9:9" ht="14.25" customHeight="1">
       <c r="I953" s="3"/>
     </row>
-    <row r="954" ht="14.25" customHeight="1">
+    <row r="954" spans="9:9" ht="14.25" customHeight="1">
       <c r="I954" s="3"/>
     </row>
-    <row r="955" ht="14.25" customHeight="1">
+    <row r="955" spans="9:9" ht="14.25" customHeight="1">
       <c r="I955" s="3"/>
     </row>
-    <row r="956" ht="14.25" customHeight="1">
+    <row r="956" spans="9:9" ht="14.25" customHeight="1">
       <c r="I956" s="3"/>
     </row>
-    <row r="957" ht="14.25" customHeight="1">
+    <row r="957" spans="9:9" ht="14.25" customHeight="1">
       <c r="I957" s="3"/>
     </row>
-    <row r="958" ht="14.25" customHeight="1">
+    <row r="958" spans="9:9" ht="14.25" customHeight="1">
       <c r="I958" s="3"/>
     </row>
-    <row r="959" ht="14.25" customHeight="1">
+    <row r="959" spans="9:9" ht="14.25" customHeight="1">
       <c r="I959" s="3"/>
     </row>
-    <row r="960" ht="14.25" customHeight="1">
+    <row r="960" spans="9:9" ht="14.25" customHeight="1">
       <c r="I960" s="3"/>
     </row>
-    <row r="961" ht="14.25" customHeight="1">
+    <row r="961" spans="9:9" ht="14.25" customHeight="1">
       <c r="I961" s="3"/>
     </row>
-    <row r="962" ht="14.25" customHeight="1">
+    <row r="962" spans="9:9" ht="14.25" customHeight="1">
       <c r="I962" s="3"/>
     </row>
-    <row r="963" ht="14.25" customHeight="1">
+    <row r="963" spans="9:9" ht="14.25" customHeight="1">
       <c r="I963" s="3"/>
     </row>
-    <row r="964" ht="14.25" customHeight="1">
+    <row r="964" spans="9:9" ht="14.25" customHeight="1">
       <c r="I964" s="3"/>
     </row>
-    <row r="965" ht="14.25" customHeight="1">
+    <row r="965" spans="9:9" ht="14.25" customHeight="1">
       <c r="I965" s="3"/>
     </row>
-    <row r="966" ht="14.25" customHeight="1">
+    <row r="966" spans="9:9" ht="14.25" customHeight="1">
       <c r="I966" s="3"/>
     </row>
-    <row r="967" ht="14.25" customHeight="1">
+    <row r="967" spans="9:9" ht="14.25" customHeight="1">
       <c r="I967" s="3"/>
     </row>
-    <row r="968" ht="14.25" customHeight="1">
+    <row r="968" spans="9:9" ht="14.25" customHeight="1">
       <c r="I968" s="3"/>
     </row>
-    <row r="969" ht="14.25" customHeight="1">
+    <row r="969" spans="9:9" ht="14.25" customHeight="1">
       <c r="I969" s="3"/>
     </row>
-    <row r="970" ht="14.25" customHeight="1">
+    <row r="970" spans="9:9" ht="14.25" customHeight="1">
       <c r="I970" s="3"/>
     </row>
-    <row r="971" ht="14.25" customHeight="1">
+    <row r="971" spans="9:9" ht="14.25" customHeight="1">
       <c r="I971" s="3"/>
     </row>
-    <row r="972" ht="14.25" customHeight="1">
+    <row r="972" spans="9:9" ht="14.25" customHeight="1">
       <c r="I972" s="3"/>
     </row>
-    <row r="973" ht="14.25" customHeight="1">
+    <row r="973" spans="9:9" ht="14.25" customHeight="1">
       <c r="I973" s="3"/>
     </row>
-    <row r="974" ht="14.25" customHeight="1">
+    <row r="974" spans="9:9" ht="14.25" customHeight="1">
       <c r="I974" s="3"/>
     </row>
-    <row r="975" ht="14.25" customHeight="1">
+    <row r="975" spans="9:9" ht="14.25" customHeight="1">
       <c r="I975" s="3"/>
     </row>
-    <row r="976" ht="14.25" customHeight="1">
+    <row r="976" spans="9:9" ht="14.25" customHeight="1">
       <c r="I976" s="3"/>
     </row>
-    <row r="977" ht="14.25" customHeight="1">
+    <row r="977" spans="9:9" ht="14.25" customHeight="1">
       <c r="I977" s="3"/>
     </row>
-    <row r="978" ht="14.25" customHeight="1">
+    <row r="978" spans="9:9" ht="14.25" customHeight="1">
       <c r="I978" s="3"/>
     </row>
-    <row r="979" ht="14.25" customHeight="1">
+    <row r="979" spans="9:9" ht="14.25" customHeight="1">
       <c r="I979" s="3"/>
     </row>
-    <row r="980" ht="14.25" customHeight="1">
+    <row r="980" spans="9:9" ht="14.25" customHeight="1">
       <c r="I980" s="3"/>
     </row>
-    <row r="981" ht="14.25" customHeight="1">
+    <row r="981" spans="9:9" ht="14.25" customHeight="1">
       <c r="I981" s="3"/>
     </row>
-    <row r="982" ht="14.25" customHeight="1">
+    <row r="982" spans="9:9" ht="14.25" customHeight="1">
       <c r="I982" s="3"/>
     </row>
-    <row r="983" ht="14.25" customHeight="1">
+    <row r="983" spans="9:9" ht="14.25" customHeight="1">
       <c r="I983" s="3"/>
     </row>
-    <row r="984" ht="14.25" customHeight="1">
+    <row r="984" spans="9:9" ht="14.25" customHeight="1">
       <c r="I984" s="3"/>
     </row>
-    <row r="985" ht="14.25" customHeight="1">
+    <row r="985" spans="9:9" ht="14.25" customHeight="1">
       <c r="I985" s="3"/>
     </row>
-    <row r="986" ht="14.25" customHeight="1">
+    <row r="986" spans="9:9" ht="14.25" customHeight="1">
       <c r="I986" s="3"/>
     </row>
-    <row r="987" ht="14.25" customHeight="1">
+    <row r="987" spans="9:9" ht="14.25" customHeight="1">
       <c r="I987" s="3"/>
     </row>
-    <row r="988" ht="14.25" customHeight="1">
+    <row r="988" spans="9:9" ht="14.25" customHeight="1">
       <c r="I988" s="3"/>
     </row>
-    <row r="989" ht="14.25" customHeight="1">
+    <row r="989" spans="9:9" ht="14.25" customHeight="1">
       <c r="I989" s="3"/>
     </row>
-    <row r="990" ht="14.25" customHeight="1">
+    <row r="990" spans="9:9" ht="14.25" customHeight="1">
       <c r="I990" s="3"/>
     </row>
-    <row r="991" ht="14.25" customHeight="1">
+    <row r="991" spans="9:9" ht="14.25" customHeight="1">
       <c r="I991" s="3"/>
     </row>
-    <row r="992" ht="14.25" customHeight="1">
+    <row r="992" spans="9:9" ht="14.25" customHeight="1">
       <c r="I992" s="3"/>
     </row>
-    <row r="993" ht="14.25" customHeight="1">
+    <row r="993" spans="9:9" ht="14.25" customHeight="1">
       <c r="I993" s="3"/>
     </row>
-    <row r="994" ht="14.25" customHeight="1">
+    <row r="994" spans="9:9" ht="14.25" customHeight="1">
       <c r="I994" s="3"/>
     </row>
-    <row r="995" ht="14.25" customHeight="1">
+    <row r="995" spans="9:9" ht="14.25" customHeight="1">
       <c r="I995" s="3"/>
     </row>
-    <row r="996" ht="14.25" customHeight="1">
+    <row r="996" spans="9:9" ht="14.25" customHeight="1">
       <c r="I996" s="3"/>
     </row>
-    <row r="997" ht="14.25" customHeight="1">
+    <row r="997" spans="9:9" ht="14.25" customHeight="1">
       <c r="I997" s="3"/>
     </row>
-    <row r="998" ht="14.25" customHeight="1">
+    <row r="998" spans="9:9" ht="14.25" customHeight="1">
       <c r="I998" s="3"/>
     </row>
-    <row r="999" ht="14.25" customHeight="1">
+    <row r="999" spans="9:9" ht="14.25" customHeight="1">
       <c r="I999" s="3"/>
     </row>
-    <row r="1000" ht="14.25" customHeight="1">
+    <row r="1000" spans="9:9" ht="14.25" customHeight="1">
       <c r="I1000" s="3"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
